--- a/data/women/W_2021_11_Letnany.xlsx
+++ b/data/women/W_2021_11_Letnany.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jzelenka\Documents\python_j\fencing\data\women\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A39BE5-CC7D-4AA0-B0EF-89D075F4AD72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9358A976-43EA-4062-8262-0C16FB973278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7152" yWindow="240" windowWidth="14112" windowHeight="12360" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13224" yWindow="-11184" windowWidth="15228" windowHeight="12360" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="initiation" sheetId="1" r:id="rId1"/>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3871" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5155" uniqueCount="109">
   <si>
     <t>Name</t>
   </si>
@@ -393,12 +393,6 @@
     <t>Eliminace_32</t>
   </si>
   <si>
-    <t>Eliminace16_A</t>
-  </si>
-  <si>
-    <t>Eliminace16_B</t>
-  </si>
-  <si>
     <t>Eliminace_8_A</t>
   </si>
   <si>
@@ -412,6 +406,21 @@
   </si>
   <si>
     <t>Eliminace_8_AB</t>
+  </si>
+  <si>
+    <t>Eliminace_64</t>
+  </si>
+  <si>
+    <t>Eliminace_16_B</t>
+  </si>
+  <si>
+    <t>Eliminace_16_A</t>
+  </si>
+  <si>
+    <t>Eliminace_4</t>
+  </si>
+  <si>
+    <t>Eliminace_2</t>
   </si>
 </sst>
 </file>
@@ -489,7 +498,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -523,6 +532,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -805,8 +821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:C5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -841,10 +857,10 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="19" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
@@ -861,10 +877,10 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D3" t="s">
@@ -881,10 +897,10 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="19" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
@@ -901,10 +917,10 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="19" t="s">
         <v>12</v>
       </c>
       <c r="D5" t="s">
@@ -921,10 +937,10 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="19" t="s">
         <v>14</v>
       </c>
       <c r="D6" t="s">
@@ -941,10 +957,10 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="19" t="s">
         <v>16</v>
       </c>
       <c r="D7" t="s">
@@ -961,10 +977,10 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="19" t="s">
         <v>18</v>
       </c>
       <c r="D8" t="s">
@@ -981,10 +997,10 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="19" t="s">
         <v>20</v>
       </c>
       <c r="D9" t="s">
@@ -1001,10 +1017,10 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="19" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
@@ -1021,10 +1037,10 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="19" t="s">
         <v>23</v>
       </c>
       <c r="D11" t="s">
@@ -1041,10 +1057,10 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="19" t="s">
         <v>16</v>
       </c>
       <c r="D12" t="s">
@@ -1061,10 +1077,10 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="19" t="s">
         <v>16</v>
       </c>
       <c r="D13" t="s">
@@ -1081,10 +1097,10 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="19" t="s">
         <v>10</v>
       </c>
       <c r="D14" t="s">
@@ -1101,10 +1117,10 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="19" t="s">
         <v>16</v>
       </c>
       <c r="D15" t="s">
@@ -1121,10 +1137,10 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="19" t="s">
         <v>16</v>
       </c>
       <c r="D16" t="s">
@@ -1141,10 +1157,10 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="19" t="s">
         <v>16</v>
       </c>
       <c r="D17" t="s">
@@ -1161,10 +1177,10 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="19" t="s">
         <v>23</v>
       </c>
       <c r="D18" t="s">
@@ -1181,10 +1197,10 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="19" t="s">
         <v>16</v>
       </c>
       <c r="D19" t="s">
@@ -1201,10 +1217,10 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="19" t="s">
         <v>14</v>
       </c>
       <c r="D20" t="s">
@@ -1221,10 +1237,10 @@
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="19" t="s">
         <v>14</v>
       </c>
       <c r="D21" t="s">
@@ -1241,10 +1257,10 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="19" t="s">
         <v>10</v>
       </c>
       <c r="D22" t="s">
@@ -1261,10 +1277,10 @@
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="19" t="s">
         <v>35</v>
       </c>
       <c r="D23" t="s">
@@ -1281,10 +1297,10 @@
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="19" t="s">
         <v>14</v>
       </c>
       <c r="D24" t="s">
@@ -1301,10 +1317,10 @@
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="19" t="s">
         <v>18</v>
       </c>
       <c r="D25" t="s">
@@ -1321,10 +1337,10 @@
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="19" t="s">
         <v>69</v>
       </c>
       <c r="D26" t="s">
@@ -1341,10 +1357,10 @@
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="19" t="s">
         <v>20</v>
       </c>
       <c r="D27" t="s">
@@ -1361,10 +1377,10 @@
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="19" t="s">
         <v>35</v>
       </c>
       <c r="D28" t="s">
@@ -1381,10 +1397,10 @@
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="19" t="s">
         <v>10</v>
       </c>
       <c r="D29" t="s">
@@ -1401,10 +1417,10 @@
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="19" t="s">
         <v>5</v>
       </c>
       <c r="D30" t="s">
@@ -1421,10 +1437,10 @@
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="19" t="s">
         <v>12</v>
       </c>
       <c r="D31" t="s">
@@ -1441,10 +1457,10 @@
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C32" s="19" t="s">
         <v>16</v>
       </c>
       <c r="D32" t="s">
@@ -1461,10 +1477,10 @@
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="19" t="s">
         <v>16</v>
       </c>
       <c r="D33" t="s">
@@ -1481,10 +1497,10 @@
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C34" s="19" t="s">
         <v>23</v>
       </c>
       <c r="D34" t="s">
@@ -1501,10 +1517,10 @@
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C35" s="19" t="s">
         <v>10</v>
       </c>
       <c r="D35" t="s">
@@ -1521,10 +1537,10 @@
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="19" t="s">
         <v>10</v>
       </c>
       <c r="D36" t="s">
@@ -1541,10 +1557,10 @@
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C37" s="19" t="s">
         <v>14</v>
       </c>
       <c r="D37" t="s">
@@ -1561,10 +1577,10 @@
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="19" t="s">
         <v>10</v>
       </c>
       <c r="D38" t="s">
@@ -1581,10 +1597,10 @@
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="19" t="s">
         <v>10</v>
       </c>
       <c r="D39" t="s">
@@ -1601,10 +1617,10 @@
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C40" s="19" t="s">
         <v>12</v>
       </c>
       <c r="D40" t="s">
@@ -1621,10 +1637,10 @@
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="19" t="s">
         <v>20</v>
       </c>
       <c r="D41" t="s">
@@ -1641,10 +1657,10 @@
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="19" t="s">
         <v>14</v>
       </c>
       <c r="D42" t="s">
@@ -1661,10 +1677,10 @@
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="C43" s="19" t="s">
         <v>35</v>
       </c>
       <c r="D43" t="s">
@@ -1681,10 +1697,10 @@
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" s="13" t="s">
+      <c r="B44" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="C44" s="19" t="s">
         <v>23</v>
       </c>
       <c r="D44" t="s">
@@ -1701,10 +1717,10 @@
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="C45" s="19" t="s">
         <v>10</v>
       </c>
       <c r="D45" t="s">
@@ -1721,10 +1737,10 @@
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" s="13" t="s">
+      <c r="B46" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="C46" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D46" t="s">
@@ -1741,10 +1757,10 @@
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="19" t="s">
         <v>14</v>
       </c>
       <c r="D47" t="s">
@@ -1761,10 +1777,10 @@
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="19" t="s">
         <v>20</v>
       </c>
       <c r="D48" t="s">
@@ -1781,10 +1797,10 @@
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" s="13" t="s">
+      <c r="B49" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="C49" s="13" t="s">
+      <c r="C49" s="19" t="s">
         <v>16</v>
       </c>
       <c r="D49" t="s">
@@ -1801,10 +1817,10 @@
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C50" s="19" t="s">
         <v>10</v>
       </c>
       <c r="D50" t="s">
@@ -1821,10 +1837,10 @@
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C51" s="19" t="s">
         <v>10</v>
       </c>
       <c r="D51" t="s">
@@ -1841,10 +1857,10 @@
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C52" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D52" t="s">
@@ -1861,10 +1877,10 @@
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" s="13" t="s">
+      <c r="B53" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="C53" s="13" t="s">
+      <c r="C53" s="19" t="s">
         <v>10</v>
       </c>
       <c r="D53" t="s">
@@ -1881,10 +1897,10 @@
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" s="13" t="s">
+      <c r="B54" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C54" s="13" t="s">
+      <c r="C54" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D54" t="s">
@@ -1901,10 +1917,10 @@
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C55" s="19" t="s">
         <v>14</v>
       </c>
       <c r="D55" t="s">
@@ -1921,10 +1937,10 @@
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C56" s="19" t="s">
         <v>14</v>
       </c>
       <c r="D56" t="s">
@@ -5747,7 +5763,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3380BB39-73E5-427D-BAD0-19949ED85E51}">
   <dimension ref="A1:K380"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -19041,20 +19057,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{859CBA69-A2DB-483F-8E6B-17CB4720DF31}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A147" workbookViewId="0">
+      <selection activeCell="D167" sqref="D167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.21875" customWidth="1"/>
     <col min="3" max="3" width="21.33203125" customWidth="1"/>
     <col min="4" max="4" width="14.33203125" customWidth="1"/>
-    <col min="5" max="5" width="0" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" customWidth="1"/>
+    <col min="5" max="5" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
     <col min="8" max="8" width="13.88671875" customWidth="1"/>
     <col min="9" max="11" width="8.88671875" style="5"/>
@@ -19102,11 +19118,32 @@
       <c r="B2" t="s">
         <v>86</v>
       </c>
+      <c r="C2" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>20</v>
+      </c>
       <c r="E2" t="s">
         <v>87</v>
       </c>
-      <c r="F2" s="18" t="s">
-        <v>98</v>
+      <c r="F2" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J2" s="5">
+        <v>15</v>
+      </c>
+      <c r="K2" s="5">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -19116,11 +19153,32 @@
       <c r="B3" t="s">
         <v>86</v>
       </c>
+      <c r="C3" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>14</v>
+      </c>
       <c r="E3" t="s">
         <v>87</v>
       </c>
-      <c r="F3" s="18" t="s">
-        <v>99</v>
+      <c r="F3" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J3" s="5">
+        <v>4</v>
+      </c>
+      <c r="K3" s="5">
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -19130,11 +19188,32 @@
       <c r="B4" t="s">
         <v>86</v>
       </c>
+      <c r="C4" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>14</v>
+      </c>
       <c r="E4" t="s">
         <v>87</v>
       </c>
-      <c r="F4" s="18" t="s">
-        <v>100</v>
+      <c r="F4" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J4" s="5">
+        <v>15</v>
+      </c>
+      <c r="K4" s="5">
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -19144,11 +19223,32 @@
       <c r="B5" t="s">
         <v>86</v>
       </c>
+      <c r="C5" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>23</v>
+      </c>
       <c r="E5" t="s">
         <v>87</v>
       </c>
-      <c r="F5" s="18" t="s">
-        <v>101</v>
+      <c r="F5" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J5" s="5">
+        <v>8</v>
+      </c>
+      <c r="K5" s="5">
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -19158,11 +19258,32 @@
       <c r="B6" t="s">
         <v>86</v>
       </c>
+      <c r="C6" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>10</v>
+      </c>
       <c r="E6" t="s">
         <v>87</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="19" t="s">
         <v>104</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J6" s="5">
+        <v>12</v>
+      </c>
+      <c r="K6" s="5">
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -19172,11 +19293,32 @@
       <c r="B7" t="s">
         <v>86</v>
       </c>
+      <c r="C7" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>18</v>
+      </c>
       <c r="E7" t="s">
         <v>87</v>
       </c>
-      <c r="F7" s="18" t="s">
-        <v>105</v>
+      <c r="F7" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J7" s="5">
+        <v>15</v>
+      </c>
+      <c r="K7" s="5">
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -19186,11 +19328,32 @@
       <c r="B8" t="s">
         <v>86</v>
       </c>
+      <c r="C8" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>16</v>
+      </c>
       <c r="E8" t="s">
         <v>87</v>
       </c>
-      <c r="F8" s="18" t="s">
-        <v>102</v>
+      <c r="F8" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J8" s="5">
+        <v>7</v>
+      </c>
+      <c r="K8" s="5">
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -19200,11 +19363,32 @@
       <c r="B9" t="s">
         <v>86</v>
       </c>
+      <c r="C9" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>16</v>
+      </c>
       <c r="E9" t="s">
         <v>87</v>
       </c>
-      <c r="F9" s="18" t="s">
-        <v>103</v>
+      <c r="F9" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J9" s="5">
+        <v>15</v>
+      </c>
+      <c r="K9" s="5">
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -19214,8 +19398,32 @@
       <c r="B10" t="s">
         <v>86</v>
       </c>
+      <c r="C10" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>14</v>
+      </c>
       <c r="E10" t="s">
         <v>87</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J10" s="5">
+        <v>15</v>
+      </c>
+      <c r="K10" s="5">
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -19225,10 +19433,5425 @@
       <c r="B11" t="s">
         <v>86</v>
       </c>
+      <c r="C11" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>8</v>
+      </c>
       <c r="E11" t="s">
         <v>87</v>
       </c>
-    </row>
+      <c r="F11" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J11" s="5">
+        <v>13</v>
+      </c>
+      <c r="K11" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>87</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J12" s="5">
+        <v>12</v>
+      </c>
+      <c r="K12" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J13" s="5">
+        <v>13</v>
+      </c>
+      <c r="K13" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J14" s="5">
+        <v>15</v>
+      </c>
+      <c r="K14" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
+        <v>87</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J15" s="5">
+        <v>12</v>
+      </c>
+      <c r="K15" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J16" s="5">
+        <v>7</v>
+      </c>
+      <c r="K16" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" t="s">
+        <v>87</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="H17" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J17" s="5">
+        <v>15</v>
+      </c>
+      <c r="K17" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" t="s">
+        <v>87</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J18" s="5">
+        <v>15</v>
+      </c>
+      <c r="K18" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" t="s">
+        <v>87</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="H19" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J19" s="5">
+        <v>14</v>
+      </c>
+      <c r="K19" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" t="s">
+        <v>87</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J20" s="5">
+        <v>7</v>
+      </c>
+      <c r="K20" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" t="s">
+        <v>87</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J21" s="5">
+        <v>15</v>
+      </c>
+      <c r="K21" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" t="s">
+        <v>87</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="G22" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H22" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J22" s="5">
+        <v>15</v>
+      </c>
+      <c r="K22" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B23" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" t="s">
+        <v>87</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="H23" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J23" s="5">
+        <v>6</v>
+      </c>
+      <c r="K23" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B24" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" t="s">
+        <v>87</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="H24" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J24" s="5">
+        <v>10</v>
+      </c>
+      <c r="K24" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" t="s">
+        <v>87</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="G25" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="H25" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J25" s="5">
+        <v>15</v>
+      </c>
+      <c r="K25" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B26" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" t="s">
+        <v>87</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="G26" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="H26" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J26" s="5">
+        <v>15</v>
+      </c>
+      <c r="K26" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B27" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" t="s">
+        <v>87</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="G27" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="H27" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J27" s="5">
+        <v>6</v>
+      </c>
+      <c r="K27" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B28" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" t="s">
+        <v>87</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="G28" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H28" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J28" s="5">
+        <v>15</v>
+      </c>
+      <c r="K28" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B29" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" t="s">
+        <v>87</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="H29" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J29" s="5">
+        <v>12</v>
+      </c>
+      <c r="K29" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" t="s">
+        <v>87</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="G30" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="H30" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J30" s="5">
+        <v>15</v>
+      </c>
+      <c r="K30" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31" t="s">
+        <v>87</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="G31" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="H31" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J31" s="5">
+        <v>5</v>
+      </c>
+      <c r="K31" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B32" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" t="s">
+        <v>87</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="G32" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="H32" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J32" s="5">
+        <v>15</v>
+      </c>
+      <c r="K32" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B33" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" t="s">
+        <v>87</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="G33" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H33" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J33" s="5">
+        <v>10</v>
+      </c>
+      <c r="K33" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B34" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" t="s">
+        <v>87</v>
+      </c>
+      <c r="F34" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="G34" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H34" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J34" s="5">
+        <v>15</v>
+      </c>
+      <c r="K34" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B35" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" t="s">
+        <v>87</v>
+      </c>
+      <c r="F35" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="G35" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="H35" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J35" s="5">
+        <v>9</v>
+      </c>
+      <c r="K35" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B36" t="s">
+        <v>86</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" t="s">
+        <v>87</v>
+      </c>
+      <c r="F36" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="G36" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="H36" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J36" s="5">
+        <v>15</v>
+      </c>
+      <c r="K36" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B37" t="s">
+        <v>86</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D37" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" t="s">
+        <v>87</v>
+      </c>
+      <c r="F37" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="G37" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="H37" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J37" s="5">
+        <v>9</v>
+      </c>
+      <c r="K37" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B38" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E38" t="s">
+        <v>87</v>
+      </c>
+      <c r="F38" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="G38" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="H38" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J38" s="5">
+        <v>15</v>
+      </c>
+      <c r="K38" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B39" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D39" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E39" t="s">
+        <v>87</v>
+      </c>
+      <c r="F39" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="G39" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="H39" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J39" s="5">
+        <v>8</v>
+      </c>
+      <c r="K39" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B40" t="s">
+        <v>86</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" t="s">
+        <v>87</v>
+      </c>
+      <c r="F40" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="G40" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J40" s="5">
+        <v>9</v>
+      </c>
+      <c r="K40" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B41" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E41" t="s">
+        <v>87</v>
+      </c>
+      <c r="F41" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="G41" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="H41" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J41" s="5">
+        <v>15</v>
+      </c>
+      <c r="K41" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B42" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42" t="s">
+        <v>87</v>
+      </c>
+      <c r="F42" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="G42" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="H42" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J42" s="5">
+        <v>15</v>
+      </c>
+      <c r="K42" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B43" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D43" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E43" t="s">
+        <v>87</v>
+      </c>
+      <c r="F43" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="G43" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="H43" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J43" s="5">
+        <v>11</v>
+      </c>
+      <c r="K43" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B44" t="s">
+        <v>86</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D44" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E44" t="s">
+        <v>87</v>
+      </c>
+      <c r="F44" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="G44" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="H44" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J44" s="5">
+        <v>10</v>
+      </c>
+      <c r="K44" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B45" t="s">
+        <v>86</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D45" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45" t="s">
+        <v>87</v>
+      </c>
+      <c r="F45" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="G45" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="H45" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J45" s="5">
+        <v>15</v>
+      </c>
+      <c r="K45" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B46" t="s">
+        <v>86</v>
+      </c>
+      <c r="C46" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D46" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" t="s">
+        <v>87</v>
+      </c>
+      <c r="F46" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="G46" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H46" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J46" s="5">
+        <v>15</v>
+      </c>
+      <c r="K46" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B47" t="s">
+        <v>86</v>
+      </c>
+      <c r="C47" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D47" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E47" t="s">
+        <v>87</v>
+      </c>
+      <c r="F47" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="G47" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="H47" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="I47" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="J47" s="21">
+        <v>11</v>
+      </c>
+      <c r="K47" s="21">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B48" t="s">
+        <v>86</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D48" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" t="s">
+        <v>87</v>
+      </c>
+      <c r="F48" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="G48" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="H48" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="I48" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J48" s="5">
+        <v>15</v>
+      </c>
+      <c r="K48" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B49" t="s">
+        <v>86</v>
+      </c>
+      <c r="C49" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D49" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E49" t="s">
+        <v>87</v>
+      </c>
+      <c r="F49" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="G49" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="H49" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J49" s="5">
+        <v>14</v>
+      </c>
+      <c r="K49" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B50" t="s">
+        <v>86</v>
+      </c>
+      <c r="C50" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E50" t="s">
+        <v>87</v>
+      </c>
+      <c r="F50" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="G50" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H50" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I50" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J50" s="5">
+        <v>13</v>
+      </c>
+      <c r="K50" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B51" t="s">
+        <v>86</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D51" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E51" t="s">
+        <v>87</v>
+      </c>
+      <c r="F51" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="G51" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H51" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I51" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J51" s="5">
+        <v>15</v>
+      </c>
+      <c r="K51" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B52" t="s">
+        <v>86</v>
+      </c>
+      <c r="C52" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D52" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F52" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="G52" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="H52" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I52" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J52" s="5">
+        <v>8</v>
+      </c>
+      <c r="K52" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B53" t="s">
+        <v>86</v>
+      </c>
+      <c r="C53" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D53" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E53" t="s">
+        <v>87</v>
+      </c>
+      <c r="F53" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="G53" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="H53" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I53" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J53" s="5">
+        <v>15</v>
+      </c>
+      <c r="K53" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B54" t="s">
+        <v>86</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D54" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E54" t="s">
+        <v>87</v>
+      </c>
+      <c r="F54" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="G54" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I54" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J54" s="5">
+        <v>14</v>
+      </c>
+      <c r="K54" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B55" t="s">
+        <v>86</v>
+      </c>
+      <c r="C55" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D55" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" t="s">
+        <v>87</v>
+      </c>
+      <c r="F55" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="G55" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="H55" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I55" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J55" s="5">
+        <v>15</v>
+      </c>
+      <c r="K55" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B56" t="s">
+        <v>86</v>
+      </c>
+      <c r="C56" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56" t="s">
+        <v>87</v>
+      </c>
+      <c r="F56" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="G56" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="H56" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I56" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J56" s="5">
+        <v>15</v>
+      </c>
+      <c r="K56" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B57" t="s">
+        <v>86</v>
+      </c>
+      <c r="C57" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D57" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57" t="s">
+        <v>87</v>
+      </c>
+      <c r="F57" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="G57" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H57" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="I57" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J57" s="5">
+        <v>4</v>
+      </c>
+      <c r="K57" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B58" t="s">
+        <v>86</v>
+      </c>
+      <c r="C58" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D58" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E58" t="s">
+        <v>87</v>
+      </c>
+      <c r="F58" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="G58" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="H58" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I58" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J58" s="5">
+        <v>15</v>
+      </c>
+      <c r="K58" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B59" t="s">
+        <v>86</v>
+      </c>
+      <c r="C59" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D59" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E59" t="s">
+        <v>87</v>
+      </c>
+      <c r="F59" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="G59" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H59" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I59" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J59" s="5">
+        <v>14</v>
+      </c>
+      <c r="K59" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B60" t="s">
+        <v>86</v>
+      </c>
+      <c r="C60" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D60" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E60" t="s">
+        <v>87</v>
+      </c>
+      <c r="F60" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="G60" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H60" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I60" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J60" s="5">
+        <v>14</v>
+      </c>
+      <c r="K60" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D61" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61" t="s">
+        <v>87</v>
+      </c>
+      <c r="F61" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="G61" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="H61" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I61" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J61" s="5">
+        <v>15</v>
+      </c>
+      <c r="K61" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B62" t="s">
+        <v>86</v>
+      </c>
+      <c r="C62" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D62" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E62" t="s">
+        <v>87</v>
+      </c>
+      <c r="F62" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="G62" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H62" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="I62" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J62" s="5">
+        <v>9</v>
+      </c>
+      <c r="K62" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B63" t="s">
+        <v>86</v>
+      </c>
+      <c r="C63" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D63" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E63" t="s">
+        <v>87</v>
+      </c>
+      <c r="F63" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="G63" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="H63" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I63" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J63" s="5">
+        <v>15</v>
+      </c>
+      <c r="K63" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B64" t="s">
+        <v>86</v>
+      </c>
+      <c r="C64" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D64" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E64" t="s">
+        <v>87</v>
+      </c>
+      <c r="F64" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="G64" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="H64" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="I64" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J64" s="5">
+        <v>15</v>
+      </c>
+      <c r="K64" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B65" t="s">
+        <v>86</v>
+      </c>
+      <c r="C65" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D65" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E65" t="s">
+        <v>87</v>
+      </c>
+      <c r="F65" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="G65" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="H65" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I65" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J65" s="5">
+        <v>11</v>
+      </c>
+      <c r="K65" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B66" t="s">
+        <v>86</v>
+      </c>
+      <c r="C66" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D66" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E66" t="s">
+        <v>87</v>
+      </c>
+      <c r="F66" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="G66" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="H66" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="I66" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J66" s="5">
+        <v>15</v>
+      </c>
+      <c r="K66" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B67" t="s">
+        <v>86</v>
+      </c>
+      <c r="C67" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D67" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E67" t="s">
+        <v>87</v>
+      </c>
+      <c r="F67" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="G67" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="H67" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I67" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J67" s="5">
+        <v>9</v>
+      </c>
+      <c r="K67" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B68" t="s">
+        <v>86</v>
+      </c>
+      <c r="C68" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D68" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E68" t="s">
+        <v>87</v>
+      </c>
+      <c r="F68" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="G68" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H68" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I68" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J68" s="5">
+        <v>15</v>
+      </c>
+      <c r="K68" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B69" t="s">
+        <v>86</v>
+      </c>
+      <c r="C69" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E69" t="s">
+        <v>87</v>
+      </c>
+      <c r="F69" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="G69" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="H69" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="I69" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J69" s="5">
+        <v>13</v>
+      </c>
+      <c r="K69" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B70" t="s">
+        <v>86</v>
+      </c>
+      <c r="C70" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D70" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E70" t="s">
+        <v>87</v>
+      </c>
+      <c r="F70" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="G70" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="H70" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I70" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J70" s="5">
+        <v>10</v>
+      </c>
+      <c r="K70" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B71" t="s">
+        <v>86</v>
+      </c>
+      <c r="C71" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D71" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E71" t="s">
+        <v>87</v>
+      </c>
+      <c r="F71" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="G71" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="H71" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="I71" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J71" s="5">
+        <v>15</v>
+      </c>
+      <c r="K71" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B72" t="s">
+        <v>86</v>
+      </c>
+      <c r="C72" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D72" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E72" t="s">
+        <v>87</v>
+      </c>
+      <c r="F72" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="G72" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="H72" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I72" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J72" s="5">
+        <v>15</v>
+      </c>
+      <c r="K72" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B73" t="s">
+        <v>86</v>
+      </c>
+      <c r="C73" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D73" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E73" t="s">
+        <v>87</v>
+      </c>
+      <c r="F73" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="G73" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="H73" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I73" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J73" s="5">
+        <v>5</v>
+      </c>
+      <c r="K73" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B74" t="s">
+        <v>86</v>
+      </c>
+      <c r="C74" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D74" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E74" t="s">
+        <v>87</v>
+      </c>
+      <c r="F74" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="G74" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H74" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I74" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J74" s="5">
+        <v>11</v>
+      </c>
+      <c r="K74" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B75" t="s">
+        <v>86</v>
+      </c>
+      <c r="C75" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D75" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E75" t="s">
+        <v>87</v>
+      </c>
+      <c r="F75" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="G75" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="H75" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I75" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J75" s="5">
+        <v>15</v>
+      </c>
+      <c r="K75" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B76" t="s">
+        <v>86</v>
+      </c>
+      <c r="C76" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D76" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E76" t="s">
+        <v>87</v>
+      </c>
+      <c r="F76" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="G76" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="H76" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I76" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J76" s="5">
+        <v>9</v>
+      </c>
+      <c r="K76" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B77" t="s">
+        <v>86</v>
+      </c>
+      <c r="C77" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D77" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E77" t="s">
+        <v>87</v>
+      </c>
+      <c r="F77" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="G77" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="H77" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I77" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J77" s="5">
+        <v>15</v>
+      </c>
+      <c r="K77" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B78" t="s">
+        <v>86</v>
+      </c>
+      <c r="C78" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D78" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E78" t="s">
+        <v>87</v>
+      </c>
+      <c r="F78" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="G78" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H78" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="I78" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J78" s="5">
+        <v>7</v>
+      </c>
+      <c r="K78" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B79" t="s">
+        <v>86</v>
+      </c>
+      <c r="C79" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D79" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E79" t="s">
+        <v>87</v>
+      </c>
+      <c r="F79" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="G79" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="H79" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="I79" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="J79" s="21">
+        <v>15</v>
+      </c>
+      <c r="K79" s="21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B80" t="s">
+        <v>86</v>
+      </c>
+      <c r="C80" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D80" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E80" t="s">
+        <v>87</v>
+      </c>
+      <c r="F80" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="G80" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H80" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I80" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J80" s="5">
+        <v>15</v>
+      </c>
+      <c r="K80" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B81" t="s">
+        <v>86</v>
+      </c>
+      <c r="C81" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D81" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E81" t="s">
+        <v>87</v>
+      </c>
+      <c r="F81" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="G81" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="H81" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I81" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J81" s="5">
+        <v>4</v>
+      </c>
+      <c r="K81" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B82" t="s">
+        <v>86</v>
+      </c>
+      <c r="C82" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D82" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E82" t="s">
+        <v>87</v>
+      </c>
+      <c r="F82" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="G82" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I82" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J82" s="5">
+        <v>15</v>
+      </c>
+      <c r="K82" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B83" t="s">
+        <v>86</v>
+      </c>
+      <c r="C83" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D83" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E83" t="s">
+        <v>87</v>
+      </c>
+      <c r="F83" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="G83" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="H83" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I83" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J83" s="5">
+        <v>13</v>
+      </c>
+      <c r="K83" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B84" t="s">
+        <v>86</v>
+      </c>
+      <c r="C84" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D84" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E84" t="s">
+        <v>87</v>
+      </c>
+      <c r="F84" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="G84" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H84" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I84" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J84" s="5">
+        <v>15</v>
+      </c>
+      <c r="K84" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B85" t="s">
+        <v>86</v>
+      </c>
+      <c r="C85" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D85" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E85" t="s">
+        <v>87</v>
+      </c>
+      <c r="F85" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="G85" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H85" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="I85" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J85" s="5">
+        <v>6</v>
+      </c>
+      <c r="K85" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B86" t="s">
+        <v>86</v>
+      </c>
+      <c r="C86" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D86" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E86" t="s">
+        <v>87</v>
+      </c>
+      <c r="F86" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="G86" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H86" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="I86" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J86" s="5">
+        <v>6</v>
+      </c>
+      <c r="K86" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B87" t="s">
+        <v>86</v>
+      </c>
+      <c r="C87" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D87" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E87" t="s">
+        <v>87</v>
+      </c>
+      <c r="F87" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="G87" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H87" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I87" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J87" s="5">
+        <v>15</v>
+      </c>
+      <c r="K87" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B88" t="s">
+        <v>86</v>
+      </c>
+      <c r="C88" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D88" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E88" t="s">
+        <v>87</v>
+      </c>
+      <c r="F88" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="G88" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="H88" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I88" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J88" s="5">
+        <v>13</v>
+      </c>
+      <c r="K88" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B89" t="s">
+        <v>86</v>
+      </c>
+      <c r="C89" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D89" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E89" t="s">
+        <v>87</v>
+      </c>
+      <c r="F89" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="G89" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="H89" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I89" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J89" s="5">
+        <v>15</v>
+      </c>
+      <c r="K89" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B90" t="s">
+        <v>86</v>
+      </c>
+      <c r="C90" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D90" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E90" t="s">
+        <v>87</v>
+      </c>
+      <c r="F90" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="G90" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="H90" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I90" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J90" s="5">
+        <v>9</v>
+      </c>
+      <c r="K90" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B91" t="s">
+        <v>86</v>
+      </c>
+      <c r="C91" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D91" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E91" t="s">
+        <v>87</v>
+      </c>
+      <c r="F91" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="G91" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="H91" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="I91" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J91" s="5">
+        <v>15</v>
+      </c>
+      <c r="K91" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B92" t="s">
+        <v>86</v>
+      </c>
+      <c r="C92" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D92" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E92" t="s">
+        <v>87</v>
+      </c>
+      <c r="F92" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="G92" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H92" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I92" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J92" s="5">
+        <v>15</v>
+      </c>
+      <c r="K92" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B93" t="s">
+        <v>86</v>
+      </c>
+      <c r="C93" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D93" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E93" t="s">
+        <v>87</v>
+      </c>
+      <c r="F93" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="G93" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="H93" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I93" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J93" s="5">
+        <v>11</v>
+      </c>
+      <c r="K93" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B94" t="s">
+        <v>86</v>
+      </c>
+      <c r="C94" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D94" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E94" t="s">
+        <v>87</v>
+      </c>
+      <c r="F94" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="G94" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H94" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="I94" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J94" s="5">
+        <v>7</v>
+      </c>
+      <c r="K94" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B95" t="s">
+        <v>86</v>
+      </c>
+      <c r="C95" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D95" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E95" t="s">
+        <v>87</v>
+      </c>
+      <c r="F95" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="G95" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="H95" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="I95" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="J95" s="21">
+        <v>15</v>
+      </c>
+      <c r="K95" s="21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B96" t="s">
+        <v>86</v>
+      </c>
+      <c r="C96" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D96" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E96" t="s">
+        <v>87</v>
+      </c>
+      <c r="F96" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="G96" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="H96" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I96" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J96" s="5">
+        <v>15</v>
+      </c>
+      <c r="K96" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B97" t="s">
+        <v>86</v>
+      </c>
+      <c r="C97" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D97" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E97" t="s">
+        <v>87</v>
+      </c>
+      <c r="F97" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="G97" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="H97" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I97" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J97" s="5">
+        <v>13</v>
+      </c>
+      <c r="K97" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A98" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B98" t="s">
+        <v>86</v>
+      </c>
+      <c r="C98" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D98" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E98" t="s">
+        <v>87</v>
+      </c>
+      <c r="F98" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="G98" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H98" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="I98" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J98" s="5">
+        <v>13</v>
+      </c>
+      <c r="K98" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A99" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B99" t="s">
+        <v>86</v>
+      </c>
+      <c r="C99" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D99" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E99" t="s">
+        <v>87</v>
+      </c>
+      <c r="F99" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="G99" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H99" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="I99" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J99" s="5">
+        <v>14</v>
+      </c>
+      <c r="K99" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A100" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B100" t="s">
+        <v>86</v>
+      </c>
+      <c r="C100" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D100" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E100" t="s">
+        <v>87</v>
+      </c>
+      <c r="F100" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="G100" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="H100" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I100" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J100" s="5">
+        <v>9</v>
+      </c>
+      <c r="K100" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A101" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B101" t="s">
+        <v>86</v>
+      </c>
+      <c r="C101" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D101" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E101" t="s">
+        <v>87</v>
+      </c>
+      <c r="F101" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="G101" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="H101" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I101" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J101" s="5">
+        <v>15</v>
+      </c>
+      <c r="K101" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A102" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B102" t="s">
+        <v>86</v>
+      </c>
+      <c r="C102" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D102" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E102" t="s">
+        <v>87</v>
+      </c>
+      <c r="F102" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="G102" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H102" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="I102" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J102" s="5">
+        <v>15</v>
+      </c>
+      <c r="K102" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B103" t="s">
+        <v>86</v>
+      </c>
+      <c r="C103" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D103" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E103" t="s">
+        <v>87</v>
+      </c>
+      <c r="F103" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="G103" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="H103" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="I103" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="J103" s="21">
+        <v>8</v>
+      </c>
+      <c r="K103" s="21">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B104" t="s">
+        <v>86</v>
+      </c>
+      <c r="C104" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D104" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E104" t="s">
+        <v>87</v>
+      </c>
+      <c r="F104" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="G104" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H104" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I104" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J104" s="5">
+        <v>6</v>
+      </c>
+      <c r="K104" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A105" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B105" t="s">
+        <v>86</v>
+      </c>
+      <c r="C105" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D105" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E105" t="s">
+        <v>87</v>
+      </c>
+      <c r="F105" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="G105" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="H105" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="I105" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J105" s="5">
+        <v>15</v>
+      </c>
+      <c r="K105" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A106" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B106" t="s">
+        <v>86</v>
+      </c>
+      <c r="C106" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D106" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E106" t="s">
+        <v>87</v>
+      </c>
+      <c r="F106" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="G106" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="H106" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I106" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J106" s="5">
+        <v>15</v>
+      </c>
+      <c r="K106" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A107" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B107" t="s">
+        <v>86</v>
+      </c>
+      <c r="C107" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D107" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E107" t="s">
+        <v>87</v>
+      </c>
+      <c r="F107" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="G107" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="H107" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I107" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J107" s="5">
+        <v>9</v>
+      </c>
+      <c r="K107" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A108" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B108" t="s">
+        <v>86</v>
+      </c>
+      <c r="C108" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D108" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E108" t="s">
+        <v>87</v>
+      </c>
+      <c r="F108" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="G108" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="H108" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I108" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J108" s="5">
+        <v>8</v>
+      </c>
+      <c r="K108" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A109" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B109" t="s">
+        <v>86</v>
+      </c>
+      <c r="C109" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D109" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E109" t="s">
+        <v>87</v>
+      </c>
+      <c r="F109" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="G109" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="H109" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I109" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J109" s="5">
+        <v>15</v>
+      </c>
+      <c r="K109" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A110" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B110" t="s">
+        <v>86</v>
+      </c>
+      <c r="C110" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D110" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E110" t="s">
+        <v>87</v>
+      </c>
+      <c r="F110" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="G110" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="H110" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I110" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J110" s="5">
+        <v>10</v>
+      </c>
+      <c r="K110" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A111" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B111" t="s">
+        <v>86</v>
+      </c>
+      <c r="C111" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D111" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E111" t="s">
+        <v>87</v>
+      </c>
+      <c r="F111" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="G111" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="H111" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I111" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J111" s="5">
+        <v>15</v>
+      </c>
+      <c r="K111" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A112" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B112" t="s">
+        <v>86</v>
+      </c>
+      <c r="C112" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D112" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E112" t="s">
+        <v>87</v>
+      </c>
+      <c r="F112" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="G112" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="H112" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="I112" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J112" s="5">
+        <v>14</v>
+      </c>
+      <c r="K112" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B113" t="s">
+        <v>86</v>
+      </c>
+      <c r="C113" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D113" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E113" t="s">
+        <v>87</v>
+      </c>
+      <c r="F113" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="G113" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="H113" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="I113" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J113" s="5">
+        <v>15</v>
+      </c>
+      <c r="K113" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A114" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B114" t="s">
+        <v>86</v>
+      </c>
+      <c r="C114" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E114" t="s">
+        <v>87</v>
+      </c>
+      <c r="F114" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="G114" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="H114" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="I114" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J114" s="5">
+        <v>15</v>
+      </c>
+      <c r="K114" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A115" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B115" t="s">
+        <v>86</v>
+      </c>
+      <c r="C115" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D115" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E115" t="s">
+        <v>87</v>
+      </c>
+      <c r="F115" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="G115" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H115" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I115" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J115" s="5">
+        <v>14</v>
+      </c>
+      <c r="K115" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A116" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B116" t="s">
+        <v>86</v>
+      </c>
+      <c r="C116" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D116" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E116" t="s">
+        <v>87</v>
+      </c>
+      <c r="F116" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="G116" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="H116" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I116" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J116" s="5">
+        <v>5</v>
+      </c>
+      <c r="K116" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A117" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B117" t="s">
+        <v>86</v>
+      </c>
+      <c r="C117" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D117" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E117" t="s">
+        <v>87</v>
+      </c>
+      <c r="F117" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="G117" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="H117" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I117" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J117" s="5">
+        <v>15</v>
+      </c>
+      <c r="K117" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A118" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B118" t="s">
+        <v>86</v>
+      </c>
+      <c r="C118" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D118" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E118" t="s">
+        <v>87</v>
+      </c>
+      <c r="F118" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="G118" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="H118" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I118" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J118" s="5">
+        <v>15</v>
+      </c>
+      <c r="K118" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B119" t="s">
+        <v>86</v>
+      </c>
+      <c r="C119" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D119" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E119" t="s">
+        <v>87</v>
+      </c>
+      <c r="F119" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="G119" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="H119" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="I119" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="J119" s="21">
+        <v>8</v>
+      </c>
+      <c r="K119" s="21">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B120" t="s">
+        <v>86</v>
+      </c>
+      <c r="C120" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D120" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E120" t="s">
+        <v>87</v>
+      </c>
+      <c r="F120" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="G120" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="H120" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="I120" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J120" s="5">
+        <v>15</v>
+      </c>
+      <c r="K120" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A121" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B121" t="s">
+        <v>86</v>
+      </c>
+      <c r="C121" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D121" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E121" t="s">
+        <v>87</v>
+      </c>
+      <c r="F121" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="G121" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="H121" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I121" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J121" s="5">
+        <v>8</v>
+      </c>
+      <c r="K121" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A122" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B122" t="s">
+        <v>86</v>
+      </c>
+      <c r="C122" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D122" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E122" t="s">
+        <v>87</v>
+      </c>
+      <c r="F122" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="G122" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H122" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I122" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J122" s="5">
+        <v>15</v>
+      </c>
+      <c r="K122" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A123" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B123" t="s">
+        <v>86</v>
+      </c>
+      <c r="C123" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D123" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E123" t="s">
+        <v>87</v>
+      </c>
+      <c r="F123" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="G123" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="H123" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I123" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J123" s="5">
+        <v>9</v>
+      </c>
+      <c r="K123" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A124" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B124" t="s">
+        <v>86</v>
+      </c>
+      <c r="C124" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D124" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E124" t="s">
+        <v>87</v>
+      </c>
+      <c r="F124" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="G124" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="H124" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I124" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J124" s="5">
+        <v>9</v>
+      </c>
+      <c r="K124" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A125" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B125" t="s">
+        <v>86</v>
+      </c>
+      <c r="C125" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D125" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E125" t="s">
+        <v>87</v>
+      </c>
+      <c r="F125" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="G125" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H125" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I125" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J125" s="5">
+        <v>15</v>
+      </c>
+      <c r="K125" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A126" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B126" t="s">
+        <v>86</v>
+      </c>
+      <c r="C126" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D126" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E126" t="s">
+        <v>87</v>
+      </c>
+      <c r="F126" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="G126" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="H126" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="I126" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J126" s="5">
+        <v>13</v>
+      </c>
+      <c r="K126" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A127" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B127" t="s">
+        <v>86</v>
+      </c>
+      <c r="C127" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D127" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E127" t="s">
+        <v>87</v>
+      </c>
+      <c r="F127" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="G127" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="H127" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I127" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J127" s="5">
+        <v>15</v>
+      </c>
+      <c r="K127" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A128" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B128" t="s">
+        <v>86</v>
+      </c>
+      <c r="C128" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D128" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E128" t="s">
+        <v>87</v>
+      </c>
+      <c r="F128" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="G128" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="H128" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I128" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J128" s="5">
+        <v>15</v>
+      </c>
+      <c r="K128" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A129" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B129" t="s">
+        <v>86</v>
+      </c>
+      <c r="C129" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D129" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E129" t="s">
+        <v>87</v>
+      </c>
+      <c r="F129" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="G129" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H129" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I129" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J129" s="5">
+        <v>7</v>
+      </c>
+      <c r="K129" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A130" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B130" t="s">
+        <v>86</v>
+      </c>
+      <c r="C130" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D130" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E130" t="s">
+        <v>87</v>
+      </c>
+      <c r="F130" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="G130" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="H130" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I130" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J130" s="5">
+        <v>13</v>
+      </c>
+      <c r="K130" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A131" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B131" t="s">
+        <v>86</v>
+      </c>
+      <c r="C131" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D131" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E131" t="s">
+        <v>87</v>
+      </c>
+      <c r="F131" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="G131" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H131" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I131" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J131" s="5">
+        <v>15</v>
+      </c>
+      <c r="K131" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A132" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B132" t="s">
+        <v>86</v>
+      </c>
+      <c r="C132" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D132" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E132" t="s">
+        <v>87</v>
+      </c>
+      <c r="F132" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="G132" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="H132" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I132" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J132" s="5">
+        <v>10</v>
+      </c>
+      <c r="K132" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A133" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B133" t="s">
+        <v>86</v>
+      </c>
+      <c r="C133" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D133" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E133" t="s">
+        <v>87</v>
+      </c>
+      <c r="F133" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="G133" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H133" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I133" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J133" s="5">
+        <v>15</v>
+      </c>
+      <c r="K133" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A134" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B134" t="s">
+        <v>86</v>
+      </c>
+      <c r="C134" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D134" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E134" t="s">
+        <v>87</v>
+      </c>
+      <c r="F134" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="G134" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H134" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I134" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J134" s="5">
+        <v>11</v>
+      </c>
+      <c r="K134" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A135" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B135" t="s">
+        <v>86</v>
+      </c>
+      <c r="C135" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D135" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E135" t="s">
+        <v>87</v>
+      </c>
+      <c r="F135" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="G135" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="H135" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="I135" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="J135" s="21">
+        <v>15</v>
+      </c>
+      <c r="K135" s="21">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B136" t="s">
+        <v>86</v>
+      </c>
+      <c r="C136" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D136" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E136" t="s">
+        <v>87</v>
+      </c>
+      <c r="F136" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="G136" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="H136" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I136" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J136" s="5">
+        <v>15</v>
+      </c>
+      <c r="K136" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A137" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B137" t="s">
+        <v>86</v>
+      </c>
+      <c r="C137" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D137" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E137" t="s">
+        <v>87</v>
+      </c>
+      <c r="F137" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="G137" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="H137" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I137" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J137" s="5">
+        <v>10</v>
+      </c>
+      <c r="K137" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A138" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B138" t="s">
+        <v>86</v>
+      </c>
+      <c r="C138" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D138" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E138" t="s">
+        <v>87</v>
+      </c>
+      <c r="F138" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="G138" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="H138" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="I138" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J138" s="5">
+        <v>15</v>
+      </c>
+      <c r="K138" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A139" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B139" t="s">
+        <v>86</v>
+      </c>
+      <c r="C139" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D139" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E139" t="s">
+        <v>87</v>
+      </c>
+      <c r="F139" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="G139" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="H139" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I139" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J139" s="5">
+        <v>10</v>
+      </c>
+      <c r="K139" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A140" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B140" t="s">
+        <v>86</v>
+      </c>
+      <c r="C140" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D140" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E140" t="s">
+        <v>87</v>
+      </c>
+      <c r="F140" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="G140" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="H140" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I140" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J140" s="5">
+        <v>14</v>
+      </c>
+      <c r="K140" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A141" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B141" t="s">
+        <v>86</v>
+      </c>
+      <c r="C141" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D141" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E141" t="s">
+        <v>87</v>
+      </c>
+      <c r="F141" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="G141" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H141" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I141" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J141" s="5">
+        <v>15</v>
+      </c>
+      <c r="K141" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A142" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B142" t="s">
+        <v>86</v>
+      </c>
+      <c r="C142" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D142" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E142" t="s">
+        <v>87</v>
+      </c>
+      <c r="F142" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="G142" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H142" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I142" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J142" s="5">
+        <v>15</v>
+      </c>
+      <c r="K142" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A143" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B143" t="s">
+        <v>86</v>
+      </c>
+      <c r="C143" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D143" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E143" t="s">
+        <v>87</v>
+      </c>
+      <c r="F143" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="G143" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="H143" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="I143" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="J143" s="21">
+        <v>7</v>
+      </c>
+      <c r="K143" s="21">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B144" t="s">
+        <v>86</v>
+      </c>
+      <c r="C144" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D144" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E144" t="s">
+        <v>87</v>
+      </c>
+      <c r="F144" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="G144" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="H144" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I144" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J144" s="5">
+        <v>15</v>
+      </c>
+      <c r="K144" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A145" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B145" t="s">
+        <v>86</v>
+      </c>
+      <c r="C145" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D145" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E145" t="s">
+        <v>87</v>
+      </c>
+      <c r="F145" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="G145" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H145" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="I145" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J145" s="5">
+        <v>7</v>
+      </c>
+      <c r="K145" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A146" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B146" t="s">
+        <v>86</v>
+      </c>
+      <c r="C146" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D146" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E146" t="s">
+        <v>87</v>
+      </c>
+      <c r="F146" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="G146" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="H146" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I146" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J146" s="5">
+        <v>15</v>
+      </c>
+      <c r="K146" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A147" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B147" t="s">
+        <v>86</v>
+      </c>
+      <c r="C147" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D147" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E147" t="s">
+        <v>87</v>
+      </c>
+      <c r="F147" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="G147" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="H147" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I147" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J147" s="5">
+        <v>10</v>
+      </c>
+      <c r="K147" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A148" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B148" t="s">
+        <v>86</v>
+      </c>
+      <c r="C148" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D148" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E148" t="s">
+        <v>87</v>
+      </c>
+      <c r="F148" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="G148" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="H148" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I148" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J148" s="5">
+        <v>10</v>
+      </c>
+      <c r="K148" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A149" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B149" t="s">
+        <v>86</v>
+      </c>
+      <c r="C149" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D149" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E149" t="s">
+        <v>87</v>
+      </c>
+      <c r="F149" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="G149" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="H149" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I149" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J149" s="5">
+        <v>15</v>
+      </c>
+      <c r="K149" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A150" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B150" t="s">
+        <v>86</v>
+      </c>
+      <c r="C150" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D150" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E150" t="s">
+        <v>87</v>
+      </c>
+      <c r="F150" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="G150" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H150" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="I150" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J150" s="5">
+        <v>7</v>
+      </c>
+      <c r="K150" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A151" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B151" t="s">
+        <v>86</v>
+      </c>
+      <c r="C151" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D151" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E151" t="s">
+        <v>87</v>
+      </c>
+      <c r="F151" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="G151" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="H151" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="I151" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="J151" s="21">
+        <v>15</v>
+      </c>
+      <c r="K151" s="21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B152" t="s">
+        <v>86</v>
+      </c>
+      <c r="C152" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D152" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E152" t="s">
+        <v>87</v>
+      </c>
+      <c r="F152" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="G152" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="H152" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I152" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J152" s="5">
+        <v>15</v>
+      </c>
+      <c r="K152" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A153" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B153" t="s">
+        <v>86</v>
+      </c>
+      <c r="C153" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D153" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E153" t="s">
+        <v>87</v>
+      </c>
+      <c r="F153" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="G153" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="H153" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I153" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J153" s="5">
+        <v>11</v>
+      </c>
+      <c r="K153" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A154" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B154" t="s">
+        <v>86</v>
+      </c>
+      <c r="C154" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D154" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E154" t="s">
+        <v>87</v>
+      </c>
+      <c r="F154" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="G154" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="H154" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I154" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J154" s="5">
+        <v>12</v>
+      </c>
+      <c r="K154" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A155" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B155" t="s">
+        <v>86</v>
+      </c>
+      <c r="C155" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D155" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E155" t="s">
+        <v>87</v>
+      </c>
+      <c r="F155" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="G155" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H155" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="I155" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J155" s="5">
+        <v>15</v>
+      </c>
+      <c r="K155" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A156" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B156" t="s">
+        <v>86</v>
+      </c>
+      <c r="C156" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D156" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E156" t="s">
+        <v>87</v>
+      </c>
+      <c r="F156" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="G156" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="H156" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I156" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J156" s="5">
+        <v>15</v>
+      </c>
+      <c r="K156" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A157" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B157" t="s">
+        <v>86</v>
+      </c>
+      <c r="C157" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D157" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E157" t="s">
+        <v>87</v>
+      </c>
+      <c r="F157" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="G157" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="H157" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I157" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J157" s="5">
+        <v>13</v>
+      </c>
+      <c r="K157" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A158" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B158" t="s">
+        <v>86</v>
+      </c>
+      <c r="C158" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D158" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E158" t="s">
+        <v>87</v>
+      </c>
+      <c r="F158" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="G158" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H158" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="I158" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J158" s="5">
+        <v>11</v>
+      </c>
+      <c r="K158" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A159" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B159" t="s">
+        <v>86</v>
+      </c>
+      <c r="C159" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D159" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E159" t="s">
+        <v>87</v>
+      </c>
+      <c r="F159" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="G159" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H159" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="I159" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="J159" s="21">
+        <v>15</v>
+      </c>
+      <c r="K159" s="21">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B160" t="s">
+        <v>86</v>
+      </c>
+      <c r="C160" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D160" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E160" t="s">
+        <v>87</v>
+      </c>
+      <c r="F160" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="G160" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="H160" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I160" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J160" s="5">
+        <v>14</v>
+      </c>
+      <c r="K160" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A161" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B161" t="s">
+        <v>86</v>
+      </c>
+      <c r="C161" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D161" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E161" t="s">
+        <v>87</v>
+      </c>
+      <c r="F161" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="G161" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="H161" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I161" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J161" s="5">
+        <v>15</v>
+      </c>
+      <c r="K161" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A162" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B162" t="s">
+        <v>86</v>
+      </c>
+      <c r="C162" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D162" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E162" t="s">
+        <v>87</v>
+      </c>
+      <c r="F162" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="G162" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H162" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="I162" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J162" s="5">
+        <v>15</v>
+      </c>
+      <c r="K162" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A163" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B163" t="s">
+        <v>86</v>
+      </c>
+      <c r="C163" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D163" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E163" t="s">
+        <v>87</v>
+      </c>
+      <c r="F163" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="G163" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="H163" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="I163" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="J163" s="21">
+        <v>13</v>
+      </c>
+      <c r="K163" s="21">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B164" t="s">
+        <v>86</v>
+      </c>
+      <c r="C164" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D164" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E164" t="s">
+        <v>87</v>
+      </c>
+      <c r="F164" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="G164" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="H164" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I164" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J164" s="5">
+        <v>15</v>
+      </c>
+      <c r="K164" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A165" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B165" t="s">
+        <v>86</v>
+      </c>
+      <c r="C165" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D165" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E165" t="s">
+        <v>87</v>
+      </c>
+      <c r="F165" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="G165" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="H165" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="I165" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="J165" s="21">
+        <v>10</v>
+      </c>
+      <c r="K165" s="21">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <autoFilter ref="A1:K1" xr:uid="{859CBA69-A2DB-483F-8E6B-17CB4720DF31}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/women/W_2021_11_Letnany.xlsx
+++ b/data/women/W_2021_11_Letnany.xlsx
@@ -1,33 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jzelenka\Documents\python_j\fencing\data\women\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9358A976-43EA-4062-8262-0C16FB973278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C43ACD-86D7-4865-BED0-3ACB7074AF93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13224" yWindow="-11184" windowWidth="15228" windowHeight="12360" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2292" yWindow="-10164" windowWidth="23040" windowHeight="7716" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="initiation" sheetId="1" r:id="rId1"/>
-    <sheet name="first_round" sheetId="2" r:id="rId2"/>
-    <sheet name="total_rank" sheetId="3" r:id="rId3"/>
-    <sheet name="pools" sheetId="4" r:id="rId4"/>
-    <sheet name="eliminations" sheetId="5" r:id="rId5"/>
+    <sheet name="total" sheetId="6" r:id="rId1"/>
+    <sheet name="initiation" sheetId="1" r:id="rId2"/>
+    <sheet name="first_round" sheetId="2" r:id="rId3"/>
+    <sheet name="total_rank" sheetId="3" r:id="rId4"/>
+    <sheet name="pools" sheetId="4" r:id="rId5"/>
+    <sheet name="eliminations" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">eliminations!$A$1:$K$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">first_round!$A$1:$M$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">initiation!$A$1:$F$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">pools!$A$1:$K$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">total_rank!$A$1:$H$1</definedName>
-    <definedName name="ExternalData_1" localSheetId="1" hidden="1">first_round!#REF!</definedName>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">initiation!#REF!</definedName>
-    <definedName name="ExternalData_1" localSheetId="2" hidden="1">total_rank!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">eliminations!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">first_round!$A$1:$M$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">initiation!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">pools!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">total!$A$1:$Q$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">total_rank!$A$1:$H$1</definedName>
+    <definedName name="ExternalData_1" localSheetId="2" hidden="1">first_round!#REF!</definedName>
+    <definedName name="ExternalData_1" localSheetId="1" hidden="1">initiation!#REF!</definedName>
+    <definedName name="ExternalData_1" localSheetId="3" hidden="1">total_rank!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -94,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5155" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5502" uniqueCount="110">
   <si>
     <t>Name</t>
   </si>
@@ -422,6 +424,9 @@
   <si>
     <t>Eliminace_2</t>
   </si>
+  <si>
+    <t>Percentil</t>
+  </si>
 </sst>
 </file>
 
@@ -498,7 +503,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -539,6 +544,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -818,11 +824,3058 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E468DFA4-DF8F-46EB-9027-2118AB1D9EA4}">
+  <dimension ref="A1:Q56"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="5"/>
+    <col min="8" max="8" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="5">
+        <v>62</v>
+      </c>
+      <c r="H2" s="1">
+        <v>38739</v>
+      </c>
+      <c r="I2">
+        <v>5</v>
+      </c>
+      <c r="J2">
+        <v>0.71</v>
+      </c>
+      <c r="K2">
+        <v>31</v>
+      </c>
+      <c r="L2">
+        <v>23</v>
+      </c>
+      <c r="M2">
+        <v>8</v>
+      </c>
+      <c r="N2" t="s">
+        <v>80</v>
+      </c>
+      <c r="O2">
+        <v>14</v>
+      </c>
+      <c r="P2">
+        <v>33</v>
+      </c>
+      <c r="Q2" s="24">
+        <f>P2/MAX($P$2:$P$56)</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="5">
+        <v>11</v>
+      </c>
+      <c r="H3" s="1">
+        <v>37414</v>
+      </c>
+      <c r="I3">
+        <v>7</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>35</v>
+      </c>
+      <c r="L3">
+        <v>13</v>
+      </c>
+      <c r="M3">
+        <v>22</v>
+      </c>
+      <c r="N3" t="s">
+        <v>80</v>
+      </c>
+      <c r="O3">
+        <v>2</v>
+      </c>
+      <c r="P3">
+        <v>5</v>
+      </c>
+      <c r="Q3" s="24">
+        <f>P3/MAX($P$2:$P$56)</f>
+        <v>9.0909090909090912E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="5">
+        <v>54</v>
+      </c>
+      <c r="H4" s="1">
+        <v>39194</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="K4">
+        <v>19</v>
+      </c>
+      <c r="L4">
+        <v>30</v>
+      </c>
+      <c r="M4">
+        <v>-11</v>
+      </c>
+      <c r="N4" t="s">
+        <v>80</v>
+      </c>
+      <c r="O4">
+        <v>43</v>
+      </c>
+      <c r="P4">
+        <v>23</v>
+      </c>
+      <c r="Q4" s="24">
+        <f t="shared" ref="Q4:Q56" si="0">P4/MAX($P$2:$P$56)</f>
+        <v>0.41818181818181815</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="5">
+        <v>8</v>
+      </c>
+      <c r="H5" s="1">
+        <v>36617</v>
+      </c>
+      <c r="I5">
+        <v>6</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>30</v>
+      </c>
+      <c r="L5">
+        <v>14</v>
+      </c>
+      <c r="M5">
+        <v>16</v>
+      </c>
+      <c r="N5" t="s">
+        <v>80</v>
+      </c>
+      <c r="O5">
+        <v>5</v>
+      </c>
+      <c r="P5">
+        <v>7</v>
+      </c>
+      <c r="Q5" s="24">
+        <f t="shared" si="0"/>
+        <v>0.12727272727272726</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="5">
+        <v>25</v>
+      </c>
+      <c r="H6" s="1">
+        <v>29490</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+      <c r="J6">
+        <v>0.67</v>
+      </c>
+      <c r="K6">
+        <v>23</v>
+      </c>
+      <c r="L6">
+        <v>18</v>
+      </c>
+      <c r="M6">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>80</v>
+      </c>
+      <c r="O6">
+        <v>17</v>
+      </c>
+      <c r="P6">
+        <v>18</v>
+      </c>
+      <c r="Q6" s="24">
+        <f t="shared" si="0"/>
+        <v>0.32727272727272727</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="5">
+        <v>999</v>
+      </c>
+      <c r="H7" s="1">
+        <v>38084</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="K7">
+        <v>23</v>
+      </c>
+      <c r="L7">
+        <v>28</v>
+      </c>
+      <c r="M7">
+        <v>-5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>80</v>
+      </c>
+      <c r="O7">
+        <v>38</v>
+      </c>
+      <c r="P7">
+        <v>41</v>
+      </c>
+      <c r="Q7" s="24">
+        <f t="shared" si="0"/>
+        <v>0.74545454545454548</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="5">
+        <v>32</v>
+      </c>
+      <c r="H8" s="1">
+        <v>32455</v>
+      </c>
+      <c r="I8">
+        <v>5</v>
+      </c>
+      <c r="J8">
+        <v>0.71</v>
+      </c>
+      <c r="K8">
+        <v>30</v>
+      </c>
+      <c r="L8">
+        <v>26</v>
+      </c>
+      <c r="M8">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>80</v>
+      </c>
+      <c r="O8">
+        <v>16</v>
+      </c>
+      <c r="P8">
+        <v>17</v>
+      </c>
+      <c r="Q8" s="24">
+        <f t="shared" si="0"/>
+        <v>0.30909090909090908</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="5">
+        <v>5</v>
+      </c>
+      <c r="H9" s="1">
+        <v>36516</v>
+      </c>
+      <c r="I9">
+        <v>7</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>35</v>
+      </c>
+      <c r="L9">
+        <v>15</v>
+      </c>
+      <c r="M9">
+        <v>20</v>
+      </c>
+      <c r="N9" t="s">
+        <v>80</v>
+      </c>
+      <c r="O9">
+        <v>3</v>
+      </c>
+      <c r="P9">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="24">
+        <f t="shared" si="0"/>
+        <v>5.4545454545454543E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="5">
+        <v>2</v>
+      </c>
+      <c r="H10" s="1">
+        <v>33010</v>
+      </c>
+      <c r="I10">
+        <v>7</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>35</v>
+      </c>
+      <c r="L10">
+        <v>11</v>
+      </c>
+      <c r="M10">
+        <v>24</v>
+      </c>
+      <c r="N10" t="s">
+        <v>80</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="24">
+        <f t="shared" si="0"/>
+        <v>5.4545454545454543E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="5">
+        <v>35</v>
+      </c>
+      <c r="H11" s="1">
+        <v>33420</v>
+      </c>
+      <c r="I11">
+        <v>4</v>
+      </c>
+      <c r="J11">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="K11">
+        <v>29</v>
+      </c>
+      <c r="L11">
+        <v>28</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>80</v>
+      </c>
+      <c r="O11">
+        <v>23</v>
+      </c>
+      <c r="P11">
+        <v>21</v>
+      </c>
+      <c r="Q11" s="24">
+        <f t="shared" si="0"/>
+        <v>0.38181818181818183</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="5">
+        <v>999</v>
+      </c>
+      <c r="H12" s="1">
+        <v>38094</v>
+      </c>
+      <c r="I12">
+        <v>3</v>
+      </c>
+      <c r="J12">
+        <v>0.43</v>
+      </c>
+      <c r="K12">
+        <v>25</v>
+      </c>
+      <c r="L12">
+        <v>30</v>
+      </c>
+      <c r="M12">
+        <v>-5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>80</v>
+      </c>
+      <c r="O12">
+        <v>34</v>
+      </c>
+      <c r="P12">
+        <v>37</v>
+      </c>
+      <c r="Q12" s="24">
+        <f t="shared" si="0"/>
+        <v>0.67272727272727273</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="5">
+        <v>44</v>
+      </c>
+      <c r="H13" s="1">
+        <v>37260</v>
+      </c>
+      <c r="I13">
+        <v>4</v>
+      </c>
+      <c r="J13">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="K13">
+        <v>28</v>
+      </c>
+      <c r="L13">
+        <v>23</v>
+      </c>
+      <c r="M13">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>80</v>
+      </c>
+      <c r="O13">
+        <v>21</v>
+      </c>
+      <c r="P13">
+        <v>20</v>
+      </c>
+      <c r="Q13" s="24">
+        <f t="shared" si="0"/>
+        <v>0.36363636363636365</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="5">
+        <v>35</v>
+      </c>
+      <c r="H14" s="1">
+        <v>37934</v>
+      </c>
+      <c r="I14">
+        <v>4</v>
+      </c>
+      <c r="J14">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="K14">
+        <v>29</v>
+      </c>
+      <c r="L14">
+        <v>24</v>
+      </c>
+      <c r="M14">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>80</v>
+      </c>
+      <c r="O14">
+        <v>20</v>
+      </c>
+      <c r="P14">
+        <v>19</v>
+      </c>
+      <c r="Q14" s="24">
+        <f t="shared" si="0"/>
+        <v>0.34545454545454546</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="5">
+        <v>999</v>
+      </c>
+      <c r="H15" s="1">
+        <v>38625</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>0.17</v>
+      </c>
+      <c r="K15">
+        <v>17</v>
+      </c>
+      <c r="L15">
+        <v>29</v>
+      </c>
+      <c r="M15">
+        <v>-12</v>
+      </c>
+      <c r="N15" t="s">
+        <v>80</v>
+      </c>
+      <c r="O15">
+        <v>45</v>
+      </c>
+      <c r="P15">
+        <v>46</v>
+      </c>
+      <c r="Q15" s="24">
+        <f t="shared" si="0"/>
+        <v>0.83636363636363631</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="5">
+        <v>62</v>
+      </c>
+      <c r="H16" s="1">
+        <v>34429</v>
+      </c>
+      <c r="I16">
+        <v>2</v>
+      </c>
+      <c r="J16">
+        <v>0.33</v>
+      </c>
+      <c r="K16">
+        <v>20</v>
+      </c>
+      <c r="L16">
+        <v>28</v>
+      </c>
+      <c r="M16">
+        <v>-8</v>
+      </c>
+      <c r="N16" t="s">
+        <v>80</v>
+      </c>
+      <c r="O16">
+        <v>36</v>
+      </c>
+      <c r="P16">
+        <v>39</v>
+      </c>
+      <c r="Q16" s="24">
+        <f t="shared" si="0"/>
+        <v>0.70909090909090911</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="5">
+        <v>17</v>
+      </c>
+      <c r="H17" s="1">
+        <v>35537</v>
+      </c>
+      <c r="I17">
+        <v>4</v>
+      </c>
+      <c r="J17">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="K17">
+        <v>28</v>
+      </c>
+      <c r="L17">
+        <v>28</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17" t="s">
+        <v>80</v>
+      </c>
+      <c r="O17">
+        <v>24</v>
+      </c>
+      <c r="P17">
+        <v>12</v>
+      </c>
+      <c r="Q17" s="24">
+        <f t="shared" si="0"/>
+        <v>0.21818181818181817</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" t="s">
+        <v>72</v>
+      </c>
+      <c r="G18" s="5">
+        <v>39</v>
+      </c>
+      <c r="H18" s="1">
+        <v>33956</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="J18">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="K18">
+        <v>21</v>
+      </c>
+      <c r="L18">
+        <v>30</v>
+      </c>
+      <c r="M18">
+        <v>-9</v>
+      </c>
+      <c r="N18" t="s">
+        <v>80</v>
+      </c>
+      <c r="O18">
+        <v>41</v>
+      </c>
+      <c r="P18">
+        <v>43</v>
+      </c>
+      <c r="Q18" s="24">
+        <f t="shared" si="0"/>
+        <v>0.78181818181818186</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="5">
+        <v>19</v>
+      </c>
+      <c r="H19" s="1">
+        <v>34628</v>
+      </c>
+      <c r="I19">
+        <v>3</v>
+      </c>
+      <c r="J19">
+        <v>0.43</v>
+      </c>
+      <c r="K19">
+        <v>27</v>
+      </c>
+      <c r="L19">
+        <v>25</v>
+      </c>
+      <c r="M19">
+        <v>2</v>
+      </c>
+      <c r="N19" t="s">
+        <v>80</v>
+      </c>
+      <c r="O19">
+        <v>29</v>
+      </c>
+      <c r="P19">
+        <v>22</v>
+      </c>
+      <c r="Q19" s="24">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="5">
+        <v>10</v>
+      </c>
+      <c r="H20" s="1">
+        <v>36590</v>
+      </c>
+      <c r="I20">
+        <v>5</v>
+      </c>
+      <c r="J20">
+        <v>0.71</v>
+      </c>
+      <c r="K20">
+        <v>30</v>
+      </c>
+      <c r="L20">
+        <v>22</v>
+      </c>
+      <c r="M20">
+        <v>8</v>
+      </c>
+      <c r="N20" t="s">
+        <v>80</v>
+      </c>
+      <c r="O20">
+        <v>15</v>
+      </c>
+      <c r="P20">
+        <v>9</v>
+      </c>
+      <c r="Q20" s="24">
+        <f t="shared" si="0"/>
+        <v>0.16363636363636364</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" t="s">
+        <v>87</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" s="5">
+        <v>7</v>
+      </c>
+      <c r="H21" s="1">
+        <v>36590</v>
+      </c>
+      <c r="I21">
+        <v>4</v>
+      </c>
+      <c r="J21">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="K21">
+        <v>29</v>
+      </c>
+      <c r="L21">
+        <v>22</v>
+      </c>
+      <c r="M21">
+        <v>7</v>
+      </c>
+      <c r="N21" t="s">
+        <v>80</v>
+      </c>
+      <c r="O21">
+        <v>19</v>
+      </c>
+      <c r="P21">
+        <v>11</v>
+      </c>
+      <c r="Q21" s="24">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22" s="5">
+        <v>62</v>
+      </c>
+      <c r="H22" s="1">
+        <v>39587</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>7</v>
+      </c>
+      <c r="L22">
+        <v>35</v>
+      </c>
+      <c r="M22">
+        <v>-28</v>
+      </c>
+      <c r="N22" t="s">
+        <v>80</v>
+      </c>
+      <c r="O22">
+        <v>55</v>
+      </c>
+      <c r="P22">
+        <v>55</v>
+      </c>
+      <c r="Q22" s="24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B23" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23" s="5">
+        <v>62</v>
+      </c>
+      <c r="H23" s="1">
+        <v>38660</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>13</v>
+      </c>
+      <c r="L23">
+        <v>35</v>
+      </c>
+      <c r="M23">
+        <v>-22</v>
+      </c>
+      <c r="N23" t="s">
+        <v>80</v>
+      </c>
+      <c r="O23">
+        <v>54</v>
+      </c>
+      <c r="P23">
+        <v>54</v>
+      </c>
+      <c r="Q23" s="24">
+        <f t="shared" si="0"/>
+        <v>0.98181818181818181</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B24" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24" s="5">
+        <v>22</v>
+      </c>
+      <c r="H24" s="1">
+        <v>36889</v>
+      </c>
+      <c r="I24">
+        <v>3</v>
+      </c>
+      <c r="J24">
+        <v>0.43</v>
+      </c>
+      <c r="K24">
+        <v>27</v>
+      </c>
+      <c r="L24">
+        <v>30</v>
+      </c>
+      <c r="M24">
+        <v>-3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>80</v>
+      </c>
+      <c r="O24">
+        <v>32</v>
+      </c>
+      <c r="P24">
+        <v>36</v>
+      </c>
+      <c r="Q24" s="24">
+        <f t="shared" si="0"/>
+        <v>0.65454545454545454</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" t="s">
+        <v>87</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25" s="5">
+        <v>20</v>
+      </c>
+      <c r="H25" s="1">
+        <v>36091</v>
+      </c>
+      <c r="I25">
+        <v>5</v>
+      </c>
+      <c r="J25">
+        <v>0.71</v>
+      </c>
+      <c r="K25">
+        <v>29</v>
+      </c>
+      <c r="L25">
+        <v>16</v>
+      </c>
+      <c r="M25">
+        <v>13</v>
+      </c>
+      <c r="N25" t="s">
+        <v>80</v>
+      </c>
+      <c r="O25">
+        <v>13</v>
+      </c>
+      <c r="P25">
+        <v>25</v>
+      </c>
+      <c r="Q25" s="24">
+        <f t="shared" si="0"/>
+        <v>0.45454545454545453</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B26" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="F26" t="s">
+        <v>70</v>
+      </c>
+      <c r="G26" s="5">
+        <v>999</v>
+      </c>
+      <c r="H26" s="1">
+        <v>33239</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K26">
+        <v>21</v>
+      </c>
+      <c r="L26">
+        <v>33</v>
+      </c>
+      <c r="M26">
+        <v>-12</v>
+      </c>
+      <c r="N26" t="s">
+        <v>80</v>
+      </c>
+      <c r="O26">
+        <v>47</v>
+      </c>
+      <c r="P26">
+        <v>48</v>
+      </c>
+      <c r="Q26" s="24">
+        <f t="shared" si="0"/>
+        <v>0.87272727272727268</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B27" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" t="s">
+        <v>6</v>
+      </c>
+      <c r="G27" s="5">
+        <v>41</v>
+      </c>
+      <c r="H27" s="1">
+        <v>38881</v>
+      </c>
+      <c r="I27">
+        <v>3</v>
+      </c>
+      <c r="J27">
+        <v>0.43</v>
+      </c>
+      <c r="K27">
+        <v>24</v>
+      </c>
+      <c r="L27">
+        <v>27</v>
+      </c>
+      <c r="M27">
+        <v>-3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>80</v>
+      </c>
+      <c r="O27">
+        <v>33</v>
+      </c>
+      <c r="P27">
+        <v>31</v>
+      </c>
+      <c r="Q27" s="24">
+        <f t="shared" si="0"/>
+        <v>0.5636363636363636</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B28" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G28" s="5">
+        <v>62</v>
+      </c>
+      <c r="H28" s="1">
+        <v>38901</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K28">
+        <v>24</v>
+      </c>
+      <c r="L28">
+        <v>34</v>
+      </c>
+      <c r="M28">
+        <v>-10</v>
+      </c>
+      <c r="N28" t="s">
+        <v>80</v>
+      </c>
+      <c r="O28">
+        <v>46</v>
+      </c>
+      <c r="P28">
+        <v>47</v>
+      </c>
+      <c r="Q28" s="24">
+        <f t="shared" si="0"/>
+        <v>0.8545454545454545</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B29" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G29" s="5">
+        <v>26</v>
+      </c>
+      <c r="H29" s="1">
+        <v>38167</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>0.17</v>
+      </c>
+      <c r="K29">
+        <v>19</v>
+      </c>
+      <c r="L29">
+        <v>27</v>
+      </c>
+      <c r="M29">
+        <v>-8</v>
+      </c>
+      <c r="N29" t="s">
+        <v>80</v>
+      </c>
+      <c r="O29">
+        <v>44</v>
+      </c>
+      <c r="P29">
+        <v>45</v>
+      </c>
+      <c r="Q29" s="24">
+        <f t="shared" si="0"/>
+        <v>0.81818181818181823</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" t="s">
+        <v>87</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30" t="s">
+        <v>6</v>
+      </c>
+      <c r="G30" s="5">
+        <v>999</v>
+      </c>
+      <c r="H30" s="1">
+        <v>37915</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K30">
+        <v>10</v>
+      </c>
+      <c r="L30">
+        <v>32</v>
+      </c>
+      <c r="M30">
+        <v>-22</v>
+      </c>
+      <c r="N30" t="s">
+        <v>80</v>
+      </c>
+      <c r="O30">
+        <v>52</v>
+      </c>
+      <c r="P30">
+        <v>52</v>
+      </c>
+      <c r="Q30" s="24">
+        <f t="shared" si="0"/>
+        <v>0.94545454545454544</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C31" t="s">
+        <v>87</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" t="s">
+        <v>6</v>
+      </c>
+      <c r="G31" s="5">
+        <v>26</v>
+      </c>
+      <c r="H31" s="1">
+        <v>37401</v>
+      </c>
+      <c r="I31">
+        <v>3</v>
+      </c>
+      <c r="J31">
+        <v>0.43</v>
+      </c>
+      <c r="K31">
+        <v>28</v>
+      </c>
+      <c r="L31">
+        <v>29</v>
+      </c>
+      <c r="M31">
+        <v>-1</v>
+      </c>
+      <c r="N31" t="s">
+        <v>80</v>
+      </c>
+      <c r="O31">
+        <v>30</v>
+      </c>
+      <c r="P31">
+        <v>29</v>
+      </c>
+      <c r="Q31" s="24">
+        <f t="shared" si="0"/>
+        <v>0.52727272727272723</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B32" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32" t="s">
+        <v>87</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G32" s="5">
+        <v>29</v>
+      </c>
+      <c r="H32" s="1">
+        <v>36841</v>
+      </c>
+      <c r="I32">
+        <v>7</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>35</v>
+      </c>
+      <c r="L32">
+        <v>15</v>
+      </c>
+      <c r="M32">
+        <v>20</v>
+      </c>
+      <c r="N32" t="s">
+        <v>80</v>
+      </c>
+      <c r="O32">
+        <v>3</v>
+      </c>
+      <c r="P32">
+        <v>6</v>
+      </c>
+      <c r="Q32" s="24">
+        <f t="shared" si="0"/>
+        <v>0.10909090909090909</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B33" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" t="s">
+        <v>87</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33" t="s">
+        <v>6</v>
+      </c>
+      <c r="G33" s="5">
+        <v>1</v>
+      </c>
+      <c r="H33" s="1">
+        <v>33018</v>
+      </c>
+      <c r="I33">
+        <v>6</v>
+      </c>
+      <c r="J33">
+        <v>0.86</v>
+      </c>
+      <c r="K33">
+        <v>34</v>
+      </c>
+      <c r="L33">
+        <v>11</v>
+      </c>
+      <c r="M33">
+        <v>23</v>
+      </c>
+      <c r="N33" t="s">
+        <v>80</v>
+      </c>
+      <c r="O33">
+        <v>7</v>
+      </c>
+      <c r="P33">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="24">
+        <f t="shared" si="0"/>
+        <v>1.8181818181818181E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B34" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" t="s">
+        <v>87</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F34" t="s">
+        <v>6</v>
+      </c>
+      <c r="G34" s="5">
+        <v>15</v>
+      </c>
+      <c r="H34" s="1">
+        <v>34911</v>
+      </c>
+      <c r="I34">
+        <v>6</v>
+      </c>
+      <c r="J34">
+        <v>0.86</v>
+      </c>
+      <c r="K34">
+        <v>31</v>
+      </c>
+      <c r="L34">
+        <v>20</v>
+      </c>
+      <c r="M34">
+        <v>11</v>
+      </c>
+      <c r="N34" t="s">
+        <v>80</v>
+      </c>
+      <c r="O34">
+        <v>10</v>
+      </c>
+      <c r="P34">
+        <v>15</v>
+      </c>
+      <c r="Q34" s="24">
+        <f t="shared" si="0"/>
+        <v>0.27272727272727271</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B35" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" t="s">
+        <v>87</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E35" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" t="s">
+        <v>6</v>
+      </c>
+      <c r="G35" s="5">
+        <v>13</v>
+      </c>
+      <c r="H35" s="1">
+        <v>36310</v>
+      </c>
+      <c r="I35">
+        <v>6</v>
+      </c>
+      <c r="J35">
+        <v>0.86</v>
+      </c>
+      <c r="K35">
+        <v>34</v>
+      </c>
+      <c r="L35">
+        <v>16</v>
+      </c>
+      <c r="M35">
+        <v>18</v>
+      </c>
+      <c r="N35" t="s">
+        <v>80</v>
+      </c>
+      <c r="O35">
+        <v>8</v>
+      </c>
+      <c r="P35">
+        <v>13</v>
+      </c>
+      <c r="Q35" s="24">
+        <f t="shared" si="0"/>
+        <v>0.23636363636363636</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B36" t="s">
+        <v>86</v>
+      </c>
+      <c r="C36" t="s">
+        <v>87</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E36" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" t="s">
+        <v>6</v>
+      </c>
+      <c r="G36" s="5">
+        <v>9</v>
+      </c>
+      <c r="H36" s="1">
+        <v>37444</v>
+      </c>
+      <c r="I36">
+        <v>5</v>
+      </c>
+      <c r="J36">
+        <v>0.83</v>
+      </c>
+      <c r="K36">
+        <v>28</v>
+      </c>
+      <c r="L36">
+        <v>14</v>
+      </c>
+      <c r="M36">
+        <v>14</v>
+      </c>
+      <c r="N36" t="s">
+        <v>80</v>
+      </c>
+      <c r="O36">
+        <v>12</v>
+      </c>
+      <c r="P36">
+        <v>8</v>
+      </c>
+      <c r="Q36" s="24">
+        <f t="shared" si="0"/>
+        <v>0.14545454545454545</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B37" t="s">
+        <v>86</v>
+      </c>
+      <c r="C37" t="s">
+        <v>87</v>
+      </c>
+      <c r="D37" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E37" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" t="s">
+        <v>6</v>
+      </c>
+      <c r="G37" s="5">
+        <v>29</v>
+      </c>
+      <c r="H37" s="1">
+        <v>30846</v>
+      </c>
+      <c r="I37">
+        <v>4</v>
+      </c>
+      <c r="J37">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="K37">
+        <v>28</v>
+      </c>
+      <c r="L37">
+        <v>28</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37" t="s">
+        <v>80</v>
+      </c>
+      <c r="O37">
+        <v>24</v>
+      </c>
+      <c r="P37">
+        <v>26</v>
+      </c>
+      <c r="Q37" s="24">
+        <f t="shared" si="0"/>
+        <v>0.47272727272727272</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B38" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38" t="s">
+        <v>87</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E38" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" t="s">
+        <v>6</v>
+      </c>
+      <c r="G38" s="5">
+        <v>4</v>
+      </c>
+      <c r="H38" s="1">
+        <v>36325</v>
+      </c>
+      <c r="I38">
+        <v>7</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>35</v>
+      </c>
+      <c r="L38">
+        <v>20</v>
+      </c>
+      <c r="M38">
+        <v>15</v>
+      </c>
+      <c r="N38" t="s">
+        <v>80</v>
+      </c>
+      <c r="O38">
+        <v>6</v>
+      </c>
+      <c r="P38">
+        <v>2</v>
+      </c>
+      <c r="Q38" s="24">
+        <f t="shared" si="0"/>
+        <v>3.6363636363636362E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B39" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39" t="s">
+        <v>87</v>
+      </c>
+      <c r="D39" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E39" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" t="s">
+        <v>6</v>
+      </c>
+      <c r="G39" s="5">
+        <v>62</v>
+      </c>
+      <c r="H39" s="1">
+        <v>38983</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K39">
+        <v>20</v>
+      </c>
+      <c r="L39">
+        <v>33</v>
+      </c>
+      <c r="M39">
+        <v>-13</v>
+      </c>
+      <c r="N39" t="s">
+        <v>80</v>
+      </c>
+      <c r="O39">
+        <v>48</v>
+      </c>
+      <c r="P39">
+        <v>49</v>
+      </c>
+      <c r="Q39" s="24">
+        <f t="shared" si="0"/>
+        <v>0.89090909090909087</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B40" t="s">
+        <v>86</v>
+      </c>
+      <c r="C40" t="s">
+        <v>87</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E40" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" t="s">
+        <v>6</v>
+      </c>
+      <c r="G40" s="5">
+        <v>999</v>
+      </c>
+      <c r="H40" s="1">
+        <v>38874</v>
+      </c>
+      <c r="I40">
+        <v>4</v>
+      </c>
+      <c r="J40">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="K40">
+        <v>27</v>
+      </c>
+      <c r="L40">
+        <v>25</v>
+      </c>
+      <c r="M40">
+        <v>2</v>
+      </c>
+      <c r="N40" t="s">
+        <v>80</v>
+      </c>
+      <c r="O40">
+        <v>22</v>
+      </c>
+      <c r="P40">
+        <v>34</v>
+      </c>
+      <c r="Q40" s="24">
+        <f t="shared" si="0"/>
+        <v>0.61818181818181817</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B41" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41" t="s">
+        <v>87</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E41" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F41" t="s">
+        <v>6</v>
+      </c>
+      <c r="G41" s="5">
+        <v>18</v>
+      </c>
+      <c r="H41" s="1">
+        <v>35707</v>
+      </c>
+      <c r="I41">
+        <v>6</v>
+      </c>
+      <c r="J41">
+        <v>0.86</v>
+      </c>
+      <c r="K41">
+        <v>31</v>
+      </c>
+      <c r="L41">
+        <v>26</v>
+      </c>
+      <c r="M41">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>80</v>
+      </c>
+      <c r="O41">
+        <v>11</v>
+      </c>
+      <c r="P41">
+        <v>16</v>
+      </c>
+      <c r="Q41" s="24">
+        <f t="shared" si="0"/>
+        <v>0.29090909090909089</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B42" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" t="s">
+        <v>87</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E42" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F42" t="s">
+        <v>6</v>
+      </c>
+      <c r="G42" s="5">
+        <v>6</v>
+      </c>
+      <c r="H42" s="1">
+        <v>36429</v>
+      </c>
+      <c r="I42">
+        <v>6</v>
+      </c>
+      <c r="J42">
+        <v>0.86</v>
+      </c>
+      <c r="K42">
+        <v>33</v>
+      </c>
+      <c r="L42">
+        <v>18</v>
+      </c>
+      <c r="M42">
+        <v>15</v>
+      </c>
+      <c r="N42" t="s">
+        <v>80</v>
+      </c>
+      <c r="O42">
+        <v>9</v>
+      </c>
+      <c r="P42">
+        <v>14</v>
+      </c>
+      <c r="Q42" s="24">
+        <f t="shared" si="0"/>
+        <v>0.25454545454545452</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B43" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43" t="s">
+        <v>87</v>
+      </c>
+      <c r="D43" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E43" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F43" t="s">
+        <v>6</v>
+      </c>
+      <c r="G43" s="5">
+        <v>999</v>
+      </c>
+      <c r="H43" s="1">
+        <v>38913</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K43">
+        <v>18</v>
+      </c>
+      <c r="L43">
+        <v>34</v>
+      </c>
+      <c r="M43">
+        <v>-16</v>
+      </c>
+      <c r="N43" t="s">
+        <v>80</v>
+      </c>
+      <c r="O43">
+        <v>50</v>
+      </c>
+      <c r="P43">
+        <v>51</v>
+      </c>
+      <c r="Q43" s="24">
+        <f t="shared" si="0"/>
+        <v>0.92727272727272725</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B44" t="s">
+        <v>86</v>
+      </c>
+      <c r="C44" t="s">
+        <v>87</v>
+      </c>
+      <c r="D44" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E44" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F44" t="s">
+        <v>6</v>
+      </c>
+      <c r="G44" s="5">
+        <v>54</v>
+      </c>
+      <c r="H44" s="1">
+        <v>34153</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K44">
+        <v>20</v>
+      </c>
+      <c r="L44">
+        <v>33</v>
+      </c>
+      <c r="M44">
+        <v>-13</v>
+      </c>
+      <c r="N44" t="s">
+        <v>80</v>
+      </c>
+      <c r="O44">
+        <v>48</v>
+      </c>
+      <c r="P44">
+        <v>49</v>
+      </c>
+      <c r="Q44" s="24">
+        <f t="shared" si="0"/>
+        <v>0.89090909090909087</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B45" t="s">
+        <v>86</v>
+      </c>
+      <c r="C45" t="s">
+        <v>87</v>
+      </c>
+      <c r="D45" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E45" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45" t="s">
+        <v>6</v>
+      </c>
+      <c r="G45" s="5">
+        <v>54</v>
+      </c>
+      <c r="H45" s="1">
+        <v>38729</v>
+      </c>
+      <c r="I45">
+        <v>3</v>
+      </c>
+      <c r="J45">
+        <v>0.43</v>
+      </c>
+      <c r="K45">
+        <v>27</v>
+      </c>
+      <c r="L45">
+        <v>29</v>
+      </c>
+      <c r="M45">
+        <v>-2</v>
+      </c>
+      <c r="N45" t="s">
+        <v>80</v>
+      </c>
+      <c r="O45">
+        <v>31</v>
+      </c>
+      <c r="P45">
+        <v>30</v>
+      </c>
+      <c r="Q45" s="24">
+        <f t="shared" si="0"/>
+        <v>0.54545454545454541</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B46" t="s">
+        <v>86</v>
+      </c>
+      <c r="C46" t="s">
+        <v>87</v>
+      </c>
+      <c r="D46" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E46" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" t="s">
+        <v>6</v>
+      </c>
+      <c r="G46" s="5">
+        <v>62</v>
+      </c>
+      <c r="H46" s="1">
+        <v>38476</v>
+      </c>
+      <c r="I46">
+        <v>2</v>
+      </c>
+      <c r="J46">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="K46">
+        <v>24</v>
+      </c>
+      <c r="L46">
+        <v>30</v>
+      </c>
+      <c r="M46">
+        <v>-6</v>
+      </c>
+      <c r="N46" t="s">
+        <v>80</v>
+      </c>
+      <c r="O46">
+        <v>40</v>
+      </c>
+      <c r="P46">
+        <v>42</v>
+      </c>
+      <c r="Q46" s="24">
+        <f t="shared" si="0"/>
+        <v>0.76363636363636367</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B47" t="s">
+        <v>86</v>
+      </c>
+      <c r="C47" t="s">
+        <v>87</v>
+      </c>
+      <c r="D47" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E47" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F47" t="s">
+        <v>6</v>
+      </c>
+      <c r="G47" s="5">
+        <v>999</v>
+      </c>
+      <c r="H47" s="1">
+        <v>33576</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>16</v>
+      </c>
+      <c r="L47">
+        <v>35</v>
+      </c>
+      <c r="M47">
+        <v>-19</v>
+      </c>
+      <c r="N47" t="s">
+        <v>80</v>
+      </c>
+      <c r="O47">
+        <v>53</v>
+      </c>
+      <c r="P47">
+        <v>53</v>
+      </c>
+      <c r="Q47" s="24">
+        <f t="shared" si="0"/>
+        <v>0.96363636363636362</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B48" t="s">
+        <v>86</v>
+      </c>
+      <c r="C48" t="s">
+        <v>87</v>
+      </c>
+      <c r="D48" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E48" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F48" t="s">
+        <v>6</v>
+      </c>
+      <c r="G48" s="5">
+        <v>54</v>
+      </c>
+      <c r="H48" s="1">
+        <v>38359</v>
+      </c>
+      <c r="I48">
+        <v>2</v>
+      </c>
+      <c r="J48">
+        <v>0.33</v>
+      </c>
+      <c r="K48">
+        <v>17</v>
+      </c>
+      <c r="L48">
+        <v>24</v>
+      </c>
+      <c r="M48">
+        <v>-7</v>
+      </c>
+      <c r="N48" t="s">
+        <v>80</v>
+      </c>
+      <c r="O48">
+        <v>35</v>
+      </c>
+      <c r="P48">
+        <v>38</v>
+      </c>
+      <c r="Q48" s="24">
+        <f t="shared" si="0"/>
+        <v>0.69090909090909092</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B49" t="s">
+        <v>86</v>
+      </c>
+      <c r="C49" t="s">
+        <v>87</v>
+      </c>
+      <c r="D49" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="E49" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F49" t="s">
+        <v>6</v>
+      </c>
+      <c r="G49" s="5">
+        <v>999</v>
+      </c>
+      <c r="H49" s="1">
+        <v>38513</v>
+      </c>
+      <c r="I49">
+        <v>2</v>
+      </c>
+      <c r="J49">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="K49">
+        <v>21</v>
+      </c>
+      <c r="L49">
+        <v>30</v>
+      </c>
+      <c r="M49">
+        <v>-9</v>
+      </c>
+      <c r="N49" t="s">
+        <v>80</v>
+      </c>
+      <c r="O49">
+        <v>41</v>
+      </c>
+      <c r="P49">
+        <v>43</v>
+      </c>
+      <c r="Q49" s="24">
+        <f t="shared" si="0"/>
+        <v>0.78181818181818186</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B50" t="s">
+        <v>86</v>
+      </c>
+      <c r="C50" t="s">
+        <v>87</v>
+      </c>
+      <c r="D50" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="E50" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50" t="s">
+        <v>6</v>
+      </c>
+      <c r="G50" s="5">
+        <v>14</v>
+      </c>
+      <c r="H50" s="1">
+        <v>37171</v>
+      </c>
+      <c r="I50">
+        <v>2</v>
+      </c>
+      <c r="J50">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="K50">
+        <v>27</v>
+      </c>
+      <c r="L50">
+        <v>29</v>
+      </c>
+      <c r="M50">
+        <v>-2</v>
+      </c>
+      <c r="N50" t="s">
+        <v>80</v>
+      </c>
+      <c r="O50">
+        <v>37</v>
+      </c>
+      <c r="P50">
+        <v>40</v>
+      </c>
+      <c r="Q50" s="24">
+        <f t="shared" si="0"/>
+        <v>0.72727272727272729</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B51" t="s">
+        <v>86</v>
+      </c>
+      <c r="C51" t="s">
+        <v>87</v>
+      </c>
+      <c r="D51" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E51" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F51" t="s">
+        <v>6</v>
+      </c>
+      <c r="G51" s="5">
+        <v>999</v>
+      </c>
+      <c r="H51" s="1">
+        <v>39095</v>
+      </c>
+      <c r="I51">
+        <v>4</v>
+      </c>
+      <c r="J51">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="K51">
+        <v>26</v>
+      </c>
+      <c r="L51">
+        <v>27</v>
+      </c>
+      <c r="M51">
+        <v>-1</v>
+      </c>
+      <c r="N51" t="s">
+        <v>80</v>
+      </c>
+      <c r="O51">
+        <v>26</v>
+      </c>
+      <c r="P51">
+        <v>35</v>
+      </c>
+      <c r="Q51" s="24">
+        <f t="shared" si="0"/>
+        <v>0.63636363636363635</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B52" t="s">
+        <v>86</v>
+      </c>
+      <c r="C52" t="s">
+        <v>87</v>
+      </c>
+      <c r="D52" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="E52" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" t="s">
+        <v>6</v>
+      </c>
+      <c r="G52" s="5">
+        <v>35</v>
+      </c>
+      <c r="H52" s="1">
+        <v>38143</v>
+      </c>
+      <c r="I52">
+        <v>4</v>
+      </c>
+      <c r="J52">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="K52">
+        <v>23</v>
+      </c>
+      <c r="L52">
+        <v>24</v>
+      </c>
+      <c r="M52">
+        <v>-1</v>
+      </c>
+      <c r="N52" t="s">
+        <v>80</v>
+      </c>
+      <c r="O52">
+        <v>27</v>
+      </c>
+      <c r="P52">
+        <v>27</v>
+      </c>
+      <c r="Q52" s="24">
+        <f t="shared" si="0"/>
+        <v>0.49090909090909091</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B53" t="s">
+        <v>86</v>
+      </c>
+      <c r="C53" t="s">
+        <v>87</v>
+      </c>
+      <c r="D53" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E53" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F53" t="s">
+        <v>6</v>
+      </c>
+      <c r="G53" s="5">
+        <v>999</v>
+      </c>
+      <c r="H53" s="1">
+        <v>39472</v>
+      </c>
+      <c r="I53">
+        <v>4</v>
+      </c>
+      <c r="J53">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="K53">
+        <v>25</v>
+      </c>
+      <c r="L53">
+        <v>28</v>
+      </c>
+      <c r="M53">
+        <v>-3</v>
+      </c>
+      <c r="N53" t="s">
+        <v>80</v>
+      </c>
+      <c r="O53">
+        <v>28</v>
+      </c>
+      <c r="P53">
+        <v>28</v>
+      </c>
+      <c r="Q53" s="24">
+        <f t="shared" si="0"/>
+        <v>0.50909090909090904</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B54" t="s">
+        <v>86</v>
+      </c>
+      <c r="C54" t="s">
+        <v>87</v>
+      </c>
+      <c r="D54" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="E54" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F54" t="s">
+        <v>6</v>
+      </c>
+      <c r="G54" s="5">
+        <v>999</v>
+      </c>
+      <c r="H54" s="1">
+        <v>38375</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K54">
+        <v>15</v>
+      </c>
+      <c r="L54">
+        <v>31</v>
+      </c>
+      <c r="M54">
+        <v>-16</v>
+      </c>
+      <c r="N54" t="s">
+        <v>80</v>
+      </c>
+      <c r="O54">
+        <v>51</v>
+      </c>
+      <c r="P54">
+        <v>24</v>
+      </c>
+      <c r="Q54" s="24">
+        <f t="shared" si="0"/>
+        <v>0.43636363636363634</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B55" t="s">
+        <v>86</v>
+      </c>
+      <c r="C55" t="s">
+        <v>87</v>
+      </c>
+      <c r="D55" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E55" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G55" s="5">
+        <v>23</v>
+      </c>
+      <c r="H55" s="1">
+        <v>30894</v>
+      </c>
+      <c r="I55">
+        <v>4</v>
+      </c>
+      <c r="J55">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="K55">
+        <v>30</v>
+      </c>
+      <c r="L55">
+        <v>20</v>
+      </c>
+      <c r="M55">
+        <v>10</v>
+      </c>
+      <c r="N55" t="s">
+        <v>80</v>
+      </c>
+      <c r="O55">
+        <v>18</v>
+      </c>
+      <c r="P55">
+        <v>10</v>
+      </c>
+      <c r="Q55" s="24">
+        <f t="shared" si="0"/>
+        <v>0.18181818181818182</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B56" t="s">
+        <v>86</v>
+      </c>
+      <c r="C56" t="s">
+        <v>87</v>
+      </c>
+      <c r="D56" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E56" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F56" t="s">
+        <v>6</v>
+      </c>
+      <c r="G56" s="5">
+        <v>39</v>
+      </c>
+      <c r="H56" s="1">
+        <v>34995</v>
+      </c>
+      <c r="I56">
+        <v>2</v>
+      </c>
+      <c r="J56">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="K56">
+        <v>26</v>
+      </c>
+      <c r="L56">
+        <v>32</v>
+      </c>
+      <c r="M56">
+        <v>-6</v>
+      </c>
+      <c r="N56" t="s">
+        <v>80</v>
+      </c>
+      <c r="O56">
+        <v>39</v>
+      </c>
+      <c r="P56">
+        <v>32</v>
+      </c>
+      <c r="Q56" s="24">
+        <f t="shared" si="0"/>
+        <v>0.58181818181818179</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:Q1" xr:uid="{E468DFA4-DF8F-46EB-9027-2118AB1D9EA4}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F56"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:C9"/>
+      <selection activeCell="B1" sqref="B1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1956,7 +5009,7 @@
   </sheetData>
   <autoFilter ref="A1:F1" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F56">
-      <sortCondition ref="A1"/>
+      <sortCondition ref="B1"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1964,12 +5017,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE10AFC5-7ADD-44E2-8FE7-BB93504E14E5}">
   <dimension ref="A1:M56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5:M5"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2021,31 +5074,31 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.71</v>
       </c>
       <c r="G2">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H2">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="I2">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="J2" t="s">
         <v>80</v>
@@ -2103,31 +5156,31 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
       </c>
       <c r="E4">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="G4">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="H4">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="I4">
-        <v>20</v>
+        <v>-11</v>
       </c>
       <c r="J4" t="s">
         <v>80</v>
@@ -2144,31 +5197,31 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
       </c>
       <c r="E5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H5">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I5">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J5" t="s">
         <v>80</v>
@@ -2185,31 +5238,31 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
       </c>
       <c r="E6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="G6">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H6">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I6">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="J6" t="s">
         <v>80</v>
@@ -2226,31 +5279,31 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
         <v>6</v>
       </c>
       <c r="E7">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="G7">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="H7">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="I7">
-        <v>15</v>
+        <v>-5</v>
       </c>
       <c r="J7" t="s">
         <v>80</v>
@@ -2267,31 +5320,31 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>
       </c>
       <c r="E8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F8">
-        <v>0.86</v>
+        <v>0.71</v>
       </c>
       <c r="G8">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H8">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="I8">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="J8" t="s">
         <v>80</v>
@@ -2308,31 +5361,31 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
         <v>6</v>
       </c>
       <c r="E9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F9">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H9">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I9">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J9" t="s">
         <v>80</v>
@@ -2349,31 +5402,31 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
         <v>6</v>
       </c>
       <c r="E10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F10">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H10">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="I10">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="J10" t="s">
         <v>80</v>
@@ -2390,10 +5443,10 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
         <v>23</v>
@@ -2402,19 +5455,19 @@
         <v>6</v>
       </c>
       <c r="E11">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F11">
-        <v>0.86</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="G11">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H11">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="I11">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="J11" t="s">
         <v>80</v>
@@ -2431,31 +5484,31 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D12" t="s">
         <v>6</v>
       </c>
       <c r="E12">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.86</v>
+        <v>0.43</v>
       </c>
       <c r="G12">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="H12">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I12">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="J12" t="s">
         <v>80</v>
@@ -2472,31 +5525,31 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D13" t="s">
         <v>6</v>
       </c>
       <c r="E13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F13">
-        <v>0.83</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="G13">
         <v>28</v>
       </c>
       <c r="H13">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="I13">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="J13" t="s">
         <v>80</v>
@@ -2513,31 +5566,31 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
         <v>6</v>
       </c>
       <c r="E14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F14">
-        <v>0.71</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="G14">
         <v>29</v>
       </c>
       <c r="H14">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I14">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="J14" t="s">
         <v>80</v>
@@ -2554,31 +5607,31 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D15" t="s">
         <v>6</v>
       </c>
       <c r="E15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.71</v>
+        <v>0.17</v>
       </c>
       <c r="G15">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="H15">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I15">
-        <v>8</v>
+        <v>-12</v>
       </c>
       <c r="J15" t="s">
         <v>80</v>
@@ -2595,31 +5648,31 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D16" t="s">
         <v>6</v>
       </c>
       <c r="E16">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.71</v>
+        <v>0.33</v>
       </c>
       <c r="G16">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H16">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="I16">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="J16" t="s">
         <v>80</v>
@@ -2636,31 +5689,31 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" t="s">
         <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" t="s">
-        <v>18</v>
       </c>
       <c r="D17" t="s">
         <v>6</v>
       </c>
       <c r="E17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F17">
-        <v>0.71</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="G17">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H17">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I17">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J17" t="s">
         <v>80</v>
@@ -2677,31 +5730,31 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D18" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="E18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>0.67</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="G18">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H18">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="I18">
-        <v>5</v>
+        <v>-9</v>
       </c>
       <c r="J18" t="s">
         <v>80</v>
@@ -2718,31 +5771,31 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D19" t="s">
         <v>6</v>
       </c>
       <c r="E19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.56999999999999995</v>
+        <v>0.43</v>
       </c>
       <c r="G19">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H19">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I19">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J19" t="s">
         <v>80</v>
@@ -2759,10 +5812,10 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C20" t="s">
         <v>14</v>
@@ -2771,19 +5824,19 @@
         <v>6</v>
       </c>
       <c r="E20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F20">
-        <v>0.56999999999999995</v>
+        <v>0.71</v>
       </c>
       <c r="G20">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H20">
         <v>22</v>
       </c>
       <c r="I20">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J20" t="s">
         <v>80</v>
@@ -2800,13 +5853,13 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D21" t="s">
         <v>6</v>
@@ -2821,10 +5874,10 @@
         <v>29</v>
       </c>
       <c r="H21">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I21">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J21" t="s">
         <v>80</v>
@@ -2841,31 +5894,31 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
         <v>6</v>
       </c>
       <c r="E22">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>0.56999999999999995</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="H22">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="I22">
-        <v>5</v>
+        <v>-28</v>
       </c>
       <c r="J22" t="s">
         <v>80</v>
@@ -2882,31 +5935,31 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="B23" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D23" t="s">
         <v>6</v>
       </c>
       <c r="E23">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>0.56999999999999995</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="H23">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="I23">
-        <v>2</v>
+        <v>-22</v>
       </c>
       <c r="J23" t="s">
         <v>80</v>
@@ -2923,31 +5976,31 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C24" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D24" t="s">
         <v>6</v>
       </c>
       <c r="E24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.56999999999999995</v>
+        <v>0.43</v>
       </c>
       <c r="G24">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H24">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="J24" t="s">
         <v>80</v>
@@ -2964,31 +6017,31 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D25" t="s">
         <v>6</v>
       </c>
       <c r="E25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F25">
-        <v>0.56999999999999995</v>
+        <v>0.71</v>
       </c>
       <c r="G25">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H25">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J25" t="s">
         <v>80</v>
@@ -3005,31 +6058,31 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="C26" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="D26" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="E26">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>0.56999999999999995</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G26">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="H26">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>-12</v>
       </c>
       <c r="J26" t="s">
         <v>80</v>
@@ -3046,31 +6099,31 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="C27" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D27" t="s">
         <v>6</v>
       </c>
       <c r="E27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F27">
-        <v>0.56999999999999995</v>
+        <v>0.43</v>
       </c>
       <c r="G27">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H27">
         <v>27</v>
       </c>
       <c r="I27">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="J27" t="s">
         <v>80</v>
@@ -3087,31 +6140,31 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="B28" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="D28" t="s">
         <v>6</v>
       </c>
       <c r="E28">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>0.56999999999999995</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G28">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H28">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="I28">
-        <v>-1</v>
+        <v>-10</v>
       </c>
       <c r="J28" t="s">
         <v>80</v>
@@ -3128,10 +6181,10 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="B29" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="C29" t="s">
         <v>10</v>
@@ -3140,19 +6193,19 @@
         <v>6</v>
       </c>
       <c r="E29">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>0.56999999999999995</v>
+        <v>0.17</v>
       </c>
       <c r="G29">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I29">
-        <v>-3</v>
+        <v>-8</v>
       </c>
       <c r="J29" t="s">
         <v>80</v>
@@ -3169,31 +6222,31 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C30" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D30" t="s">
         <v>6</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>0.43</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G30">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="H30">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I30">
-        <v>2</v>
+        <v>-22</v>
       </c>
       <c r="J30" t="s">
         <v>80</v>
@@ -3251,31 +6304,31 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C32" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D32" t="s">
         <v>6</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F32">
-        <v>0.43</v>
+        <v>1</v>
       </c>
       <c r="G32">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H32">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="I32">
-        <v>-2</v>
+        <v>20</v>
       </c>
       <c r="J32" t="s">
         <v>80</v>
@@ -3292,31 +6345,31 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C33" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D33" t="s">
         <v>6</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F33">
-        <v>0.43</v>
+        <v>0.86</v>
       </c>
       <c r="G33">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="H33">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="I33">
-        <v>-3</v>
+        <v>23</v>
       </c>
       <c r="J33" t="s">
         <v>80</v>
@@ -3333,31 +6386,31 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="B34" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C34" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D34" t="s">
         <v>6</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F34">
-        <v>0.43</v>
+        <v>0.86</v>
       </c>
       <c r="G34">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H34">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I34">
-        <v>-3</v>
+        <v>11</v>
       </c>
       <c r="J34" t="s">
         <v>80</v>
@@ -3374,31 +6427,31 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="B35" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="C35" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
         <v>6</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F35">
-        <v>0.43</v>
+        <v>0.86</v>
       </c>
       <c r="G35">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="H35">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I35">
-        <v>-5</v>
+        <v>18</v>
       </c>
       <c r="J35" t="s">
         <v>80</v>
@@ -3415,31 +6468,31 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="B36" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C36" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
         <v>6</v>
       </c>
       <c r="E36">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F36">
-        <v>0.33</v>
+        <v>0.83</v>
       </c>
       <c r="G36">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="H36">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="I36">
-        <v>-7</v>
+        <v>14</v>
       </c>
       <c r="J36" t="s">
         <v>80</v>
@@ -3456,31 +6509,31 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B37" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="C37" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D37" t="s">
         <v>6</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F37">
-        <v>0.33</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="G37">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="H37">
         <v>28</v>
       </c>
       <c r="I37">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="J37" t="s">
         <v>80</v>
@@ -3497,10 +6550,10 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C38" t="s">
         <v>10</v>
@@ -3509,19 +6562,19 @@
         <v>6</v>
       </c>
       <c r="E38">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F38">
-        <v>0.28999999999999998</v>
+        <v>1</v>
       </c>
       <c r="G38">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H38">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I38">
-        <v>-2</v>
+        <v>15</v>
       </c>
       <c r="J38" t="s">
         <v>80</v>
@@ -3538,31 +6591,31 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B39" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C39" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
         <v>6</v>
       </c>
       <c r="E39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F39">
-        <v>0.28999999999999998</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G39">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H39">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="I39">
-        <v>-5</v>
+        <v>-13</v>
       </c>
       <c r="J39" t="s">
         <v>80</v>
@@ -3579,31 +6632,31 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="B40" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="C40" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D40" t="s">
         <v>6</v>
       </c>
       <c r="E40">
+        <v>4</v>
+      </c>
+      <c r="F40">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G40">
+        <v>27</v>
+      </c>
+      <c r="H40">
+        <v>25</v>
+      </c>
+      <c r="I40">
         <v>2</v>
-      </c>
-      <c r="F40">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="G40">
-        <v>26</v>
-      </c>
-      <c r="H40">
-        <v>32</v>
-      </c>
-      <c r="I40">
-        <v>-6</v>
       </c>
       <c r="J40" t="s">
         <v>80</v>
@@ -3620,31 +6673,31 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D41" t="s">
         <v>6</v>
       </c>
       <c r="E41">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F41">
-        <v>0.28999999999999998</v>
+        <v>0.86</v>
       </c>
       <c r="G41">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H41">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I41">
-        <v>-6</v>
+        <v>5</v>
       </c>
       <c r="J41" t="s">
         <v>80</v>
@@ -3661,31 +6714,31 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="B42" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C42" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D42" t="s">
         <v>6</v>
       </c>
       <c r="E42">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F42">
-        <v>0.28999999999999998</v>
+        <v>0.86</v>
       </c>
       <c r="G42">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="H42">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I42">
-        <v>-9</v>
+        <v>15</v>
       </c>
       <c r="J42" t="s">
         <v>80</v>
@@ -3702,31 +6755,31 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B43" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="C43" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D43" t="s">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="E43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F43">
-        <v>0.28999999999999998</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G43">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H43">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I43">
-        <v>-9</v>
+        <v>-16</v>
       </c>
       <c r="J43" t="s">
         <v>80</v>
@@ -3743,31 +6796,31 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B44" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C44" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D44" t="s">
         <v>6</v>
       </c>
       <c r="E44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F44">
-        <v>0.28999999999999998</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G44">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H44">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I44">
-        <v>-11</v>
+        <v>-13</v>
       </c>
       <c r="J44" t="s">
         <v>80</v>
@@ -3784,10 +6837,10 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="B45" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="C45" t="s">
         <v>10</v>
@@ -3796,19 +6849,19 @@
         <v>6</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F45">
-        <v>0.17</v>
+        <v>0.43</v>
       </c>
       <c r="G45">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="H45">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I45">
-        <v>-8</v>
+        <v>-2</v>
       </c>
       <c r="J45" t="s">
         <v>80</v>
@@ -3825,31 +6878,31 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B46" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="C46" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D46" t="s">
         <v>6</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F46">
-        <v>0.17</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="G46">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H46">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I46">
-        <v>-12</v>
+        <v>-6</v>
       </c>
       <c r="J46" t="s">
         <v>80</v>
@@ -3866,31 +6919,31 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B47" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="C47" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="D47" t="s">
         <v>6</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>0.14000000000000001</v>
+        <v>0</v>
       </c>
       <c r="G47">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="H47">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I47">
-        <v>-10</v>
+        <v>-19</v>
       </c>
       <c r="J47" t="s">
         <v>80</v>
@@ -3907,31 +6960,31 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B48" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C48" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="D48" t="s">
-        <v>70</v>
+        <v>6</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F48">
-        <v>0.14000000000000001</v>
+        <v>0.33</v>
       </c>
       <c r="G48">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H48">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="I48">
-        <v>-12</v>
+        <v>-7</v>
       </c>
       <c r="J48" t="s">
         <v>80</v>
@@ -3948,31 +7001,31 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B49" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C49" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D49" t="s">
         <v>6</v>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F49">
-        <v>0.14000000000000001</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="G49">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H49">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I49">
-        <v>-13</v>
+        <v>-9</v>
       </c>
       <c r="J49" t="s">
         <v>80</v>
@@ -3989,10 +7042,10 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="B50" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C50" t="s">
         <v>10</v>
@@ -4001,19 +7054,19 @@
         <v>6</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F50">
-        <v>0.14000000000000001</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="G50">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H50">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I50">
-        <v>-13</v>
+        <v>-2</v>
       </c>
       <c r="J50" t="s">
         <v>80</v>
@@ -4030,31 +7083,31 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="B51" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C51" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
         <v>6</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F51">
-        <v>0.14000000000000001</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="G51">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="H51">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="I51">
-        <v>-16</v>
+        <v>-1</v>
       </c>
       <c r="J51" t="s">
         <v>80</v>
@@ -4071,10 +7124,10 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="B52" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C52" t="s">
         <v>8</v>
@@ -4083,19 +7136,19 @@
         <v>6</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F52">
-        <v>0.14000000000000001</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="G52">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H52">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="I52">
-        <v>-16</v>
+        <v>-1</v>
       </c>
       <c r="J52" t="s">
         <v>80</v>
@@ -4112,31 +7165,31 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="B53" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="C53" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
         <v>6</v>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F53">
-        <v>0.14000000000000001</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="G53">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="H53">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I53">
-        <v>-22</v>
+        <v>-3</v>
       </c>
       <c r="J53" t="s">
         <v>80</v>
@@ -4153,31 +7206,31 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B54" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C54" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D54" t="s">
         <v>6</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G54">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H54">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I54">
-        <v>-19</v>
+        <v>-16</v>
       </c>
       <c r="J54" t="s">
         <v>80</v>
@@ -4194,31 +7247,31 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="B55" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="C55" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="D55" t="s">
         <v>6</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="G55">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H55">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I55">
-        <v>-22</v>
+        <v>10</v>
       </c>
       <c r="J55" t="s">
         <v>80</v>
@@ -4235,31 +7288,31 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="B56" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="C56" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D56" t="s">
         <v>6</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="G56">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="H56">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I56">
-        <v>-28</v>
+        <v>-6</v>
       </c>
       <c r="J56" t="s">
         <v>80</v>
@@ -4275,23 +7328,27 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M1" xr:uid="{CE10AFC5-7ADD-44E2-8FE7-BB93504E14E5}"/>
+  <autoFilter ref="A1:M1" xr:uid="{CE10AFC5-7ADD-44E2-8FE7-BB93504E14E5}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M56">
+      <sortCondition ref="B1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00A0A925-C162-4F9B-AD1A-9DDF02A37C73}">
   <dimension ref="A1:H56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:G2"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.109375" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
     <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
     <col min="6" max="6" width="11.5546875" customWidth="1"/>
   </cols>
@@ -4324,19 +7381,19 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="1">
-        <v>33018</v>
+        <v>38739</v>
       </c>
       <c r="F2" s="1">
         <v>44527</v>
@@ -4350,19 +7407,19 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="1">
-        <v>36325</v>
+        <v>37414</v>
       </c>
       <c r="F3" s="1">
         <v>44527</v>
@@ -4376,19 +7433,19 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="1">
-        <v>36516</v>
+        <v>39194</v>
       </c>
       <c r="F4" s="1">
         <v>44527</v>
@@ -4402,19 +7459,19 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="1">
-        <v>33010</v>
+        <v>36617</v>
       </c>
       <c r="F5" s="1">
         <v>44527</v>
@@ -4428,19 +7485,19 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
       </c>
       <c r="E6" s="1">
-        <v>37414</v>
+        <v>29490</v>
       </c>
       <c r="F6" s="1">
         <v>44527</v>
@@ -4454,10 +7511,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
         <v>16</v>
@@ -4466,7 +7523,7 @@
         <v>6</v>
       </c>
       <c r="E7" s="1">
-        <v>36841</v>
+        <v>38084</v>
       </c>
       <c r="F7" s="1">
         <v>44527</v>
@@ -4480,19 +7537,19 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>
       </c>
       <c r="E8" s="1">
-        <v>36617</v>
+        <v>32455</v>
       </c>
       <c r="F8" s="1">
         <v>44527</v>
@@ -4506,19 +7563,19 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
         <v>6</v>
       </c>
       <c r="E9" s="1">
-        <v>37444</v>
+        <v>36516</v>
       </c>
       <c r="F9" s="1">
         <v>44527</v>
@@ -4532,19 +7589,19 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
         <v>6</v>
       </c>
       <c r="E10" s="1">
-        <v>36590</v>
+        <v>33010</v>
       </c>
       <c r="F10" s="1">
         <v>44527</v>
@@ -4558,19 +7615,19 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
         <v>6</v>
       </c>
       <c r="E11" s="1">
-        <v>30894</v>
+        <v>33420</v>
       </c>
       <c r="F11" s="1">
         <v>44527</v>
@@ -4584,19 +7641,19 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D12" t="s">
         <v>6</v>
       </c>
       <c r="E12" s="1">
-        <v>36590</v>
+        <v>38094</v>
       </c>
       <c r="F12" s="1">
         <v>44527</v>
@@ -4610,10 +7667,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
         <v>16</v>
@@ -4622,7 +7679,7 @@
         <v>6</v>
       </c>
       <c r="E13" s="1">
-        <v>35537</v>
+        <v>37260</v>
       </c>
       <c r="F13" s="1">
         <v>44527</v>
@@ -4636,10 +7693,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
@@ -4648,7 +7705,7 @@
         <v>6</v>
       </c>
       <c r="E14" s="1">
-        <v>36310</v>
+        <v>37934</v>
       </c>
       <c r="F14" s="1">
         <v>44527</v>
@@ -4662,19 +7719,19 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D15" t="s">
         <v>6</v>
       </c>
       <c r="E15" s="1">
-        <v>36429</v>
+        <v>38625</v>
       </c>
       <c r="F15" s="1">
         <v>44527</v>
@@ -4688,19 +7745,19 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D16" t="s">
         <v>6</v>
       </c>
       <c r="E16" s="1">
-        <v>34911</v>
+        <v>34429</v>
       </c>
       <c r="F16" s="1">
         <v>44527</v>
@@ -4714,19 +7771,19 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" t="s">
         <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" t="s">
-        <v>20</v>
       </c>
       <c r="D17" t="s">
         <v>6</v>
       </c>
       <c r="E17" s="1">
-        <v>35707</v>
+        <v>35537</v>
       </c>
       <c r="F17" s="1">
         <v>44527</v>
@@ -4740,19 +7797,19 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D18" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="E18" s="1">
-        <v>32455</v>
+        <v>33956</v>
       </c>
       <c r="F18" s="1">
         <v>44527</v>
@@ -4766,19 +7823,19 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D19" t="s">
         <v>6</v>
       </c>
       <c r="E19" s="1">
-        <v>29490</v>
+        <v>34628</v>
       </c>
       <c r="F19" s="1">
         <v>44527</v>
@@ -4792,19 +7849,19 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D20" t="s">
         <v>6</v>
       </c>
       <c r="E20" s="1">
-        <v>37934</v>
+        <v>36590</v>
       </c>
       <c r="F20" s="1">
         <v>44527</v>
@@ -4818,19 +7875,19 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D21" t="s">
         <v>6</v>
       </c>
       <c r="E21" s="1">
-        <v>37260</v>
+        <v>36590</v>
       </c>
       <c r="F21" s="1">
         <v>44527</v>
@@ -4844,19 +7901,19 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
         <v>6</v>
       </c>
       <c r="E22" s="1">
-        <v>33420</v>
+        <v>39587</v>
       </c>
       <c r="F22" s="1">
         <v>44527</v>
@@ -4870,19 +7927,19 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="D23" t="s">
         <v>6</v>
       </c>
       <c r="E23" s="1">
-        <v>34628</v>
+        <v>38660</v>
       </c>
       <c r="F23" s="1">
         <v>44527</v>
@@ -4896,19 +7953,19 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="C24" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D24" t="s">
         <v>6</v>
       </c>
       <c r="E24" s="1">
-        <v>39194</v>
+        <v>36889</v>
       </c>
       <c r="F24" s="1">
         <v>44527</v>
@@ -4922,19 +7979,19 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D25" t="s">
         <v>6</v>
       </c>
       <c r="E25" s="1">
-        <v>38375</v>
+        <v>36091</v>
       </c>
       <c r="F25" s="1">
         <v>44527</v>
@@ -4948,19 +8005,19 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="B26" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="C26" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="D26" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="E26" s="1">
-        <v>36091</v>
+        <v>33239</v>
       </c>
       <c r="F26" s="1">
         <v>44527</v>
@@ -4974,19 +8031,19 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C27" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D27" t="s">
         <v>6</v>
       </c>
       <c r="E27" s="1">
-        <v>30846</v>
+        <v>38881</v>
       </c>
       <c r="F27" s="1">
         <v>44527</v>
@@ -5000,19 +8057,19 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="B28" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="D28" t="s">
         <v>6</v>
       </c>
       <c r="E28" s="1">
-        <v>38143</v>
+        <v>38901</v>
       </c>
       <c r="F28" s="1">
         <v>44527</v>
@@ -5026,10 +8083,10 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="B29" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="C29" t="s">
         <v>10</v>
@@ -5038,7 +8095,7 @@
         <v>6</v>
       </c>
       <c r="E29" s="1">
-        <v>39472</v>
+        <v>38167</v>
       </c>
       <c r="F29" s="1">
         <v>44527</v>
@@ -5052,19 +8109,19 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="B30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C30" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D30" t="s">
         <v>6</v>
       </c>
       <c r="E30" s="1">
-        <v>37401</v>
+        <v>37915</v>
       </c>
       <c r="F30" s="1">
         <v>44527</v>
@@ -5078,19 +8135,19 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C31" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D31" t="s">
         <v>6</v>
       </c>
       <c r="E31" s="1">
-        <v>38729</v>
+        <v>37401</v>
       </c>
       <c r="F31" s="1">
         <v>44527</v>
@@ -5104,19 +8161,19 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C32" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D32" t="s">
         <v>6</v>
       </c>
       <c r="E32" s="1">
-        <v>38881</v>
+        <v>36841</v>
       </c>
       <c r="F32" s="1">
         <v>44527</v>
@@ -5130,19 +8187,19 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="C33" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D33" t="s">
         <v>6</v>
       </c>
       <c r="E33" s="1">
-        <v>34995</v>
+        <v>33018</v>
       </c>
       <c r="F33" s="1">
         <v>44527</v>
@@ -5156,19 +8213,19 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B34" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="C34" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D34" t="s">
         <v>6</v>
       </c>
       <c r="E34" s="1">
-        <v>38739</v>
+        <v>34911</v>
       </c>
       <c r="F34" s="1">
         <v>44527</v>
@@ -5182,19 +8239,19 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="B35" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C35" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
         <v>6</v>
       </c>
       <c r="E35" s="1">
-        <v>38874</v>
+        <v>36310</v>
       </c>
       <c r="F35" s="1">
         <v>44527</v>
@@ -5208,10 +8265,10 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="C36" t="s">
         <v>10</v>
@@ -5220,7 +8277,7 @@
         <v>6</v>
       </c>
       <c r="E36" s="1">
-        <v>39095</v>
+        <v>37444</v>
       </c>
       <c r="F36" s="1">
         <v>44527</v>
@@ -5234,10 +8291,10 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B37" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="C37" t="s">
         <v>14</v>
@@ -5246,7 +8303,7 @@
         <v>6</v>
       </c>
       <c r="E37" s="1">
-        <v>36889</v>
+        <v>30846</v>
       </c>
       <c r="F37" s="1">
         <v>44527</v>
@@ -5260,19 +8317,19 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="B38" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C38" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
         <v>6</v>
       </c>
       <c r="E38" s="1">
-        <v>38094</v>
+        <v>36325</v>
       </c>
       <c r="F38" s="1">
         <v>44527</v>
@@ -5286,19 +8343,19 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="B39" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C39" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
         <v>6</v>
       </c>
       <c r="E39" s="1">
-        <v>38359</v>
+        <v>38983</v>
       </c>
       <c r="F39" s="1">
         <v>44527</v>
@@ -5312,19 +8369,19 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B40" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="C40" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D40" t="s">
         <v>6</v>
       </c>
       <c r="E40" s="1">
-        <v>34429</v>
+        <v>38874</v>
       </c>
       <c r="F40" s="1">
         <v>44527</v>
@@ -5338,19 +8395,19 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="B41" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C41" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D41" t="s">
         <v>6</v>
       </c>
       <c r="E41" s="1">
-        <v>37171</v>
+        <v>35707</v>
       </c>
       <c r="F41" s="1">
         <v>44527</v>
@@ -5364,19 +8421,19 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="B42" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="C42" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D42" t="s">
         <v>6</v>
       </c>
       <c r="E42" s="1">
-        <v>38084</v>
+        <v>36429</v>
       </c>
       <c r="F42" s="1">
         <v>44527</v>
@@ -5390,19 +8447,19 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B43" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="D43" t="s">
         <v>6</v>
       </c>
       <c r="E43" s="1">
-        <v>38476</v>
+        <v>38913</v>
       </c>
       <c r="F43" s="1">
         <v>44527</v>
@@ -5416,19 +8473,19 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B44" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C44" t="s">
         <v>23</v>
       </c>
       <c r="D44" t="s">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="E44" s="1">
-        <v>33956</v>
+        <v>34153</v>
       </c>
       <c r="F44" s="1">
         <v>44527</v>
@@ -5442,19 +8499,19 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B45" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C45" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
         <v>6</v>
       </c>
       <c r="E45" s="1">
-        <v>38513</v>
+        <v>38729</v>
       </c>
       <c r="F45" s="1">
         <v>44527</v>
@@ -5468,19 +8525,19 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B46" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="C46" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D46" t="s">
         <v>6</v>
       </c>
       <c r="E46" s="1">
-        <v>38167</v>
+        <v>38476</v>
       </c>
       <c r="F46" s="1">
         <v>44527</v>
@@ -5494,19 +8551,19 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B47" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="C47" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D47" t="s">
         <v>6</v>
       </c>
       <c r="E47" s="1">
-        <v>38625</v>
+        <v>33576</v>
       </c>
       <c r="F47" s="1">
         <v>44527</v>
@@ -5520,19 +8577,19 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B48" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="C48" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="D48" t="s">
         <v>6</v>
       </c>
       <c r="E48" s="1">
-        <v>38901</v>
+        <v>38359</v>
       </c>
       <c r="F48" s="1">
         <v>44527</v>
@@ -5546,19 +8603,19 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B49" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C49" t="s">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="D49" t="s">
-        <v>70</v>
+        <v>6</v>
       </c>
       <c r="E49" s="1">
-        <v>33239</v>
+        <v>38513</v>
       </c>
       <c r="F49" s="1">
         <v>44527</v>
@@ -5572,19 +8629,19 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B50" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C50" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
         <v>6</v>
       </c>
       <c r="E50" s="1">
-        <v>34153</v>
+        <v>37171</v>
       </c>
       <c r="F50" s="1">
         <v>44527</v>
@@ -5598,10 +8655,10 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B51" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C51" t="s">
         <v>10</v>
@@ -5610,7 +8667,7 @@
         <v>6</v>
       </c>
       <c r="E51" s="1">
-        <v>38983</v>
+        <v>39095</v>
       </c>
       <c r="F51" s="1">
         <v>44527</v>
@@ -5624,19 +8681,19 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="B52" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C52" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="D52" t="s">
         <v>6</v>
       </c>
       <c r="E52" s="1">
-        <v>38913</v>
+        <v>38143</v>
       </c>
       <c r="F52" s="1">
         <v>44527</v>
@@ -5650,19 +8707,19 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="B53" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="C53" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
         <v>6</v>
       </c>
       <c r="E53" s="1">
-        <v>37915</v>
+        <v>39472</v>
       </c>
       <c r="F53" s="1">
         <v>44527</v>
@@ -5676,19 +8733,19 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="B54" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C54" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D54" t="s">
         <v>6</v>
       </c>
       <c r="E54" s="1">
-        <v>33576</v>
+        <v>38375</v>
       </c>
       <c r="F54" s="1">
         <v>44527</v>
@@ -5702,19 +8759,19 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="B55" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="C55" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="D55" t="s">
         <v>6</v>
       </c>
       <c r="E55" s="1">
-        <v>38660</v>
+        <v>30894</v>
       </c>
       <c r="F55" s="1">
         <v>44527</v>
@@ -5728,19 +8785,19 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B56" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="C56" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D56" t="s">
         <v>6</v>
       </c>
       <c r="E56" s="1">
-        <v>39587</v>
+        <v>34995</v>
       </c>
       <c r="F56" s="1">
         <v>44527</v>
@@ -5753,13 +8810,17 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H1" xr:uid="{00A0A925-C162-4F9B-AD1A-9DDF02A37C73}"/>
+  <autoFilter ref="A1:H1" xr:uid="{00A0A925-C162-4F9B-AD1A-9DDF02A37C73}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H56">
+      <sortCondition ref="B1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3380BB39-73E5-427D-BAD0-19949ED85E51}">
   <dimension ref="A1:K380"/>
   <sheetViews>
@@ -19055,11 +22116,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{859CBA69-A2DB-483F-8E6B-17CB4720DF31}">
   <dimension ref="A1:K166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A147" workbookViewId="0">
+    <sheetView topLeftCell="A147" workbookViewId="0">
       <selection activeCell="D167" sqref="D167"/>
     </sheetView>
   </sheetViews>
